--- a/Work/Data/currency-pair_db.xlsx
+++ b/Work/Data/currency-pair_db.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA8A071-1AE9-4EDC-9B24-645E494BCB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ADB01E-E15A-4B19-8BCF-AF1D58DEED52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7510" uniqueCount="7256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7509" uniqueCount="7256">
   <si>
     <t>Date</t>
   </si>
@@ -22181,7 +22192,7 @@
   <dimension ref="A1:C4659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -59455,18 +59466,13 @@
       </c>
     </row>
     <row r="4659" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4659" s="3">
-        <v>38749</v>
-      </c>
-      <c r="B4659" t="s">
-        <v>4404</v>
-      </c>
+      <c r="A4659" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C4659:G4659 D1:G1 C2:G2 C3:G3 C4:G4 C5:G5 C6:G6 C7:G7 C8:G8 C9:G9 C10:G10 C11:G11 C12:G12 C13:G13 C14:G14 C15:G15 C16:G16 C17:G17 C18:G18 C19:G19 C20:G20 C21:G21 C22:G22 C23:G23 C24:G24 C25:G25 C26:G26 C27:G27 C28:G28 C29:G29 C30:G30 C31:G31 C32:G32 C33:G33 C34:G34 C35:G35 C36:G36 C37:G37 C38:G38 C39:G39 C40:G40 C41:G41 C42:G42 C43:G43 C44:G44 C45:G45 C46:G46 C47:G47 C48:G48 C49:G49 C50:G50 C51:G51 C52:G52 C53:G53 C54:G54 C55:G55 C56:G56 C57:G57 C58:G58 C59:G59 C60:G60 C61:G61 C62:G62 C63:G63 C64:G64 C65:G65 C66:G66 C67:G67 C68:G68 C69:G69 C70:G70 C71:G71 C72:G72 C73:G73 C74:G74 C75:G75 C76:G76 C77:G77 C78:G78 C79:G79 C80:G80 C81:G81 C82:G82 C83:G83 C84:G84 C85:G85 C86:G86 C87:G87 C88:G88 C89:G89 C90:G90 C91:G91 C92:G92 C93:G93 C94:G94 C95:G95 C96:G96 C97:G97 C98:G98 C99:G99 C100:G100 C101:G101 C102:G102 C103:G103 C104:G104 C105:G105 C106:G106 C107:G107 C108:G108 C109:G109 C110:G110 C111:G111 C112:G112 C113:G113 C114:G114 C115:G115 C116:G116 C117:G117 C118:G118 C119:G119 C120:G120 C121:G121 C122:G122 C123:G123 C124:G124 C125:G125 C126:G126 C127:G127 C128:G128 C129:G129 C130:G130 C131:G131 C132:G132 C133:G133 C134:G134 C135:G135 C136:G136 C137:G137 C138:G138 C139:G139 C140:G140 C141:G141 C142:G142 C143:G143 C144:G144 C145:G145 C146:G146 C147:G147 C148:G148 C149:G149 C150:G150 C151:G151 C152:G152 C153:G153 C154:G154 C155:G155 C156:G156 C157:G157 C158:G158 C159:G159 C160:G160 C161:G161 C162:G162 C163:G163 C164:G164 C165:G165 C166:G166 C167:G167 C168:G168 C169:G169 C170:G170 C171:G171 C172:G172 C173:G173 C174:G174 C175:G175 C176:G176 C177:G177 C178:G178 C179:G179 C180:G180 C181:G181 C182:G182 C183:G183 C184:G184 C185:G185 C186:G186 C187:G187 C188:G188 C189:G189 C190:G190 C191:G191 C192:G192 C193:G193 C194:G194 C195:G195 C196:G196 C197:G197 C198:G198 C199:G199 C200:G200 C201:G201 C202:G202 C203:G203 C204:G204 C205:G205 C206:G206 C207:G207 C208:G208 C209:G209 C210:G210 C211:G211 C212:G212 C213:G213 C214:G214 C215:G215 C216:G216 C217:G217 C218:G218 C219:G219 C220:G220 C221:G221 C222:G222 C223:G223 C224:G224 C225:G225 C226:G226 C227:G227 C228:G228 C229:G229 C230:G230 C231:G231 C232:G232 C233:G233 C234:G234 C235:G235 C236:G236 C237:G237 C238:G238 C239:G239 C240:G240 C241:G241 C242:G242 C243:G243 C244:G244 C245:G245 C246:G246 C247:G247 C248:G248 C249:G249 C250:G250 C251:G251 C252:G252 C253:G253 C254:G254 C255:G255 C256:G256 C257:G257 C258:G258 C259:G259 C260:G260 C261:G261 C262:G262 C263:G263 C264:G264 C265:G265 C266:G266 C267:G267 C268:G268 C269:G269 C270:G270 C271:G271 C272:G272 C273:G273 C274:G274 C275:G275 C276:G276 C277:G277 C278:G278 C279:G279 C280:G280 C281:G281 C282:G282 C283:G283 C284:G284 C285:G285 C286:G286 C287:G287 C288:G288 C289:G289 C290:G290 C291:G291 C292:G292 C293:G293 C294:G294 C295:G295 C296:G296 C297:G297 C298:G298 C299:G299 C300:G300 C301:G301 C302:G302 C303:G303 C304:G304 C305:G305 C306:G306 C307:G307 C308:G308 C309:G309 C310:G310 C311:G311 C312:G312 C313:G313 C314:G314 C315:G315 C316:G316 C317:G317 C318:G318 C319:G319 C320:G320 C321:G321 C322:G322 C323:G323 C324:G324 C325:G325 C326:G326 C327:G327 C328:G328 C329:G329 C330:G330 C331:G331 C332:G332 C333:G333 C334:G334 C335:G335 C336:G336 C337:G337 C338:G338 C339:G339 C340:G340 C341:G341 C342:G342 C343:G343 C344:G344 C345:G345 C346:G346 C347:G347 C348:G348 C349:G349 C350:G350 C351:G351 C352:G352 C353:G353 C354:G354 C355:G355 C356:G356 C357:G357 C358:G358 C359:G359 C360:G360 C361:G361 C362:G362 C363:G363 C364:G364 C365:G365 C366:G366 C367:G367 C368:G368 C369:G369 C370:G370 C371:G371 C372:G372 C373:G373 C374:G374 C375:G375 C376:G376 C377:G377 C378:G378 C379:G379 C380:G380 C381:G381 C382:G382 C383:G383 C384:G384 C385:G385 C386:G386 C387:G387 C388:G388 C389:G389 C390:G390 C391:G391 C392:G392 C393:G393 C394:G394 C395:G395 C396:G396 C397:G397 C398:G398 C399:G399 C400:G400 C401:G401 C402:G402 C403:G403 C404:G404 C405:G405 C406:G406 C407:G407 C408:G408 C409:G409 C410:G410 C411:G411 C412:G412 C413:G413 C414:G414 C415:G415 C416:G416 C417:G417 C418:G418 C419:G419 C420:G420 C421:G421 C422:G422 C423:G423 C424:G424 C425:G425 C426:G426 C427:G427 C428:G428 C429:G429 C430:G430 C431:G431 C432:G432 C433:G433 C434:G434 C435:G435 C436:G436 C437:G437 C438:G438 C439:G439 C440:G440 C441:G441 C442:G442 C443:G443 C444:G444 C445:G445 C446:G446 C447:G447 C448:G448 C449:G449 C450:G450 C451:G451 C452:G452 C453:G453 C454:G454 C455:G455 C456:G456 C457:G457 C458:G458 C459:G459 C460:G460 C461:G461 C462:G462 C463:G463 C464:G464 C465:G465 C466:G466 C467:G467 C468:G468 C469:G469 C470:G470 C471:G471 C472:G472 C473:G473 C474:G474 C475:G475 C476:G476 C477:G477 C478:G478 C479:G479 C480:G480 C481:G481 C482:G482 C483:G483 C484:G484 C485:G485 C486:G486 C487:G487 C488:G488 C489:G489 C490:G490 C491:G491 C492:G492 C493:G493 C494:G494 C495:G495 C496:G496 C497:G497 C498:G498 C499:G499 C500:G500 C501:G501 C502:G502 C503:G503 C504:G504 C505:G505 C506:G506 C507:G507 C508:G508 C509:G509 C510:G510 C511:G511 C512:G512 C513:G513 C514:G514 C515:G515 C516:G516 C517:G517 C518:G518 C519:G519 C520:G520 C521:G521 C522:G522 C523:G523 C524:G524 C525:G525 C526:G526 C527:G527 C528:G528 C529:G529 C530:G530 C531:G531 C532:G532 C533:G533 C534:G534 C535:G535 C536:G536 C537:G537 C538:G538 C539:G539 C540:G540 C541:G541 C542:G542 C543:G543 C544:G544 C545:G545 C546:G546 C547:G547 C548:G548 C549:G549 C550:G550 C551:G551 C552:G552 C553:G553 C554:G554 C555:G555 C556:G556 C557:G557 C558:G558 C559:G559 C560:G560 C561:G561 C562:G562 C563:G563 C564:G564 C565:G565 C566:G566 C567:G567 C568:G568 C569:G569 C570:G570 C571:G571 C572:G572 C573:G573 C574:G574 C575:G575 C576:G576 C577:G577 C578:G578 C579:G579 C580:G580 C581:G581 C582:G582 C583:G583 C584:G584 C585:G585 C586:G586 C587:G587 C588:G588 C589:G589 C590:G590 C591:G591 C592:G592 C593:G593 C594:G594 C595:G595 C596:G596 C597:G597 C598:G598 C599:G599 C600:G600 C601:G601 C602:G602 C603:G603 C604:G604 C605:G605 C606:G606 C607:G607 C608:G608 C609:G609 C610:G610 C611:G611 C612:G612 C613:G613 C614:G614 C615:G615 C616:G616 C617:G617 C618:G618 C619:G619 C620:G620 C621:G621 C622:G622 C623:G623 C624:G624 C625:G625 C626:G626 C627:G627 C628:G628 C629:G629 C630:G630 C631:G631 C632:G632 C633:G633 C634:G634 C635:G635 C636:G636 C637:G637 C638:G638 C639:G639 C640:G640 C641:G641 C642:G642 C643:G643 C644:G644 C645:G645 C646:G646 C647:G647 C648:G648 C649:G649 C650:G650 C651:G651 C652:G652 C653:G653 C654:G654 C655:G655 C656:G656 C657:G657 C658:G658 C659:G659 C660:G660 C661:G661 C662:G662 C663:G663 C664:G664 C665:G665 C666:G666 C667:G667 C668:G668 C669:G669 C670:G670 C671:G671 C672:G672 C673:G673 C674:G674 C675:G675 C676:G676 C677:G677 C678:G678 C679:G679 C680:G680 C681:G681 C682:G682 C683:G683 C684:G684 C685:G685 C686:G686 C687:G687 C688:G688 C689:G689 C690:G690 C691:G691 C692:G692 C693:G693 C694:G694 C695:G695 C696:G696 C697:G697 C698:G698 C699:G699 C700:G700 C701:G701 C702:G702 C703:G703 C704:G704 C705:G705 C706:G706 C707:G707 C708:G708 C709:G709 C710:G710 C711:G711 C712:G712 C713:G713 C714:G714 C715:G715 C716:G716 C717:G717 C718:G718 C719:G719 C720:G720 C721:G721 C722:G722 C723:G723 C724:G724 C725:G725 C726:G726 C727:G727 C728:G728 C729:G729 C730:G730 C731:G731 C732:G732 C733:G733 C734:G734 C735:G735 C736:G736 C737:G737 C738:G738 C739:G739 C740:G740 C741:G741 C742:G742 C743:G743 C744:G744 C745:G745 C746:G746 C747:G747 C748:G748 C749:G749 C750:G750 C751:G751 C752:G752 C753:G753 C754:G754 C755:G755 C756:G756 C757:G757 C758:G758 C759:G759 C760:G760 C761:G761 C762:G762 C763:G763 C764:G764 C765:G765 C766:G766 C767:G767 C768:G768 C769:G769 C770:G770 C771:G771 C772:G772 C773:G773 C774:G774 C775:G775 C776:G776 C777:G777 C778:G778 C779:G779 C780:G780 C781:G781 C782:G782 C783:G783 C784:G784 C785:G785 C786:G786 C787:G787 C788:G788 C789:G789 C790:G790 C791:G791 C792:G792 C793:G793 C794:G794 C795:G795 C796:G796 C797:G797 C798:G798 C799:G799 C800:G800 C801:G801 C802:G802 C803:G803 C804:G804 C805:G805 C806:G806 C807:G807 C808:G808 C809:G809 C810:G810 C811:G811 C812:G812 C813:G813 C814:G814 C815:G815 C816:G816 C817:G817 C818:G818 C819:G819 C820:G820 C821:G821 C822:G822 C823:G823 C824:G824 C825:G825 C826:G826 C827:G827 C828:G828 C829:G829 C830:G830 C831:G831 C832:G832 C833:G833 C834:G834 C835:G835 C836:G836 C837:G837 C838:G838 C839:G839 C840:G840 C841:G841 C842:G842 C843:G843 C844:G844 C845:G845 C846:G846 C847:G847 C848:G848 C849:G849 C850:G850 C851:G851 C852:G852 C853:G853 C854:G854 C855:G855 C856:G856 C857:G857 C858:G858 C859:G859 C860:G860 C861:G861 C862:G862 C863:G863 C864:G864 C865:G865 C866:G866 C867:G867 C868:G868 C869:G869 C870:G870 C871:G871 C872:G872 C873:G873 C874:G874 C875:G875 C876:G876 C877:G877 C878:G878 C879:G879 C880:G880 C881:G881 C882:G882 C883:G883 C884:G884 C885:G885 C886:G886 C887:G887 C888:G888 C889:G889 C890:G890 C891:G891 C892:G892 C893:G893 C894:G894 C895:G895 C896:G896 C897:G897 C898:G898 C899:G899 C900:G900 C901:G901 C902:G902 C903:G903 C904:G904 C905:G905 C906:G906 C907:G907 C908:G908 C909:G909 C910:G910 C911:G911 C912:G912 C913:G913 C914:G914 C915:G915 C916:G916 C917:G917 C918:G918 C919:G919 C920:G920 C921:G921 C922:G922 C923:G923 C924:G924 C925:G925 C926:G926 C927:G927 C928:G928 C929:G929 C930:G930 C931:G931 C932:G932 C933:G933 C934:G934 C935:G935 C936:G936 C937:G937 C938:G938 C939:G939 C940:G940 C941:G941 C942:G942 C943:G943 C944:G944 C945:G945 C946:G946 C947:G947 C948:G948 C949:G949 C950:G950 C951:G951 C952:G952 C953:G953 C954:G954 C955:G955 C956:G956 C957:G957 C958:G958 C959:G959 C960:G960 C961:G961 C962:G962 C963:G963 C964:G964 C965:G965 C966:G966 C967:G967 C968:G968 C969:G969 C970:G970 C971:G971 C972:G972 C973:G973 C974:G974 C975:G975 C976:G976 C977:G977 C978:G978 C979:G979 C980:G980 C981:G981 C982:G982 C983:G983 C984:G984 C985:G985 C986:G986 C987:G987 C988:G988 C989:G989 C990:G990 C991:G991 C992:G992 C993:G993 C994:G994 C995:G995 C996:G996 C997:G997 C998:G998 C999:G999 C1000:G1000 C1001:G1001 C1002:G1002 C1003:G1003 C1004:G1004 C1005:G1005 C1006:G1006 C1007:G1007 C1008:G1008 C1009:G1009 C1010:G1010 C1011:G1011 C1012:G1012 C1013:G1013 C1014:G1014 C1015:G1015 C1016:G1016 C1017:G1017 C1018:G1018 C1019:G1019 C1020:G1020 C1021:G1021 C1022:G1022 C1023:G1023 C1024:G1024 C1025:G1025 C1026:G1026 C1027:G1027 C1028:G1028 C1029:G1029 C1030:G1030 C1031:G1031 C1032:G1032 C1033:G1033 C1034:G1034 C1035:G1035 C1036:G1036 C1037:G1037 C1038:G1038 C1039:G1039 C1040:G1040 C1041:G1041 C1042:G1042 C1043:G1043 C1044:G1044 C1045:G1045 C1046:G1046 C1047:G1047 C1048:G1048 C1049:G1049 C1050:G1050 C1051:G1051 C1052:G1052 C1053:G1053 C1054:G1054 C1055:G1055 C1056:G1056 C1057:G1057 C1058:G1058 C1059:G1059 C1060:G1060 C1061:G1061 C1062:G1062 C1063:G1063 C1064:G1064 C1065:G1065 C1066:G1066 C1067:G1067 C1068:G1068 C1069:G1069 C1070:G1070 C1071:G1071 C1072:G1072 C1073:G1073 C1074:G1074 C1075:G1075 C1076:G1076 C1077:G1077 C1078:G1078 C1079:G1079 C1080:G1080 C1081:G1081 C1082:G1082 C1083:G1083 C1084:G1084 C1085:G1085 C1086:G1086 C1087:G1087 C1088:G1088 C1089:G1089 C1090:G1090 C1091:G1091 C1092:G1092 C1093:G1093 C1094:G1094 C1095:G1095 C1096:G1096 C1097:G1097 C1098:G1098 C1099:G1099 C1100:G1100 C1101:G1101 C1102:G1102 C1103:G1103 C1104:G1104 C1105:G1105 C1106:G1106 C1107:G1107 C1108:G1108 C1109:G1109 C1110:G1110 C1111:G1111 C1112:G1112 C1113:G1113 C1114:G1114 C1115:G1115 C1116:G1116 C1117:G1117 C1118:G1118 C1119:G1119 C1120:G1120 C1121:G1121 C1122:G1122 C1123:G1123 C1124:G1124 C1125:G1125 C1126:G1126 C1127:G1127 C1128:G1128 C1129:G1129 C1130:G1130 C1131:G1131 C1132:G1132 C1133:G1133 C1134:G1134 C1135:G1135 C1136:G1136 C1137:G1137 C1138:G1138 C1139:G1139 C1140:G1140 C1141:G1141 C1142:G1142 C1143:G1143 C1144:G1144 C1145:G1145 C1146:G1146 C1147:G1147 C1148:G1148 C1149:G1149 C1150:G1150 C1151:G1151 C1152:G1152 C1153:G1153 C1154:G1154 C1155:G1155 C1156:G1156 C1157:G1157 C1158:G1158 C1159:G1159 C1160:G1160 C1161:G1161 C1162:G1162 C1163:G1163 C1164:G1164 C1165:G1165 C1166:G1166 C1167:G1167 C1168:G1168 C1169:G1169 C1170:G1170 C1171:G1171 C1172:G1172 C1173:G1173 C1174:G1174 C1175:G1175 C1176:G1176 C1177:G1177 C1178:G1178 C1179:G1179 C1180:G1180 C1181:G1181 C1182:G1182 C1183:G1183 C1184:G1184 C1185:G1185 C1186:G1186 C1187:G1187 C1188:G1188 C1189:G1189 C1190:G1190 C1191:G1191 C1192:G1192 C1193:G1193 C1194:G1194 C1195:G1195 C1196:G1196 C1197:G1197 C1198:G1198 C1199:G1199 C1200:G1200 C1201:G1201 C1202:G1202 C1203:G1203 C1204:G1204 C1205:G1205 C1206:G1206 C1207:G1207 C1208:G1208 C1209:G1209 C1210:G1210 C1211:G1211 C1212:G1212 C1213:G1213 C1214:G1214 C1215:G1215 C1216:G1216 C1217:G1217 C1218:G1218 C1219:G1219 C1220:G1220 C1221:G1221 C1222:G1222 C1223:G1223 C1224:G1224 C1225:G1225 C1226:G1226 C1227:G1227 C1228:G1228 C1229:G1229 C1230:G1230 C1231:G1231 C1232:G1232 C1233:G1233 C1234:G1234 C1235:G1235 C1236:G1236 C1237:G1237 C1238:G1238 C1239:G1239 C1240:G1240 C1241:G1241 C1242:G1242 C1243:G1243 C1244:G1244 C1245:G1245 C1246:G1246 C1247:G1247 C1248:G1248 C1249:G1249 C1250:G1250 C1251:G1251 C1252:G1252 C1253:G1253 C1254:G1254 C1255:G1255 C1256:G1256 C1257:G1257 C1258:G1258 C1259:G1259 C1260:G1260 C1261:G1261 C1262:G1262 C1263:G1263 C1264:G1264 C1265:G1265 C1266:G1266 C1267:G1267 C1268:G1268 C1269:G1269 C1270:G1270 C1271:G1271 C1272:G1272 C1273:G1273 C1274:G1274 C1275:G1275 C1276:G1276 C1277:G1277 C1278:G1278 C1279:G1279 C1280:G1280 C1281:G1281 C1282:G1282 C1283:G1283 C1284:G1284 C1285:G1285 C1286:G1286 C1287:G1287 C1288:G1288 C1289:G1289 C1290:G1290 C1291:G1291 C1292:G1292 C1293:G1293 C1294:G1294 C1295:G1295 C1296:G1296 C1297:G1297 C1298:G1298 C1299:G1299 C1300:G1300 C1301:G1301 C1302:G1302 C1303:G1303 C1304:G1304 C1305:G1305 C1306:G1306 C1307:G1307 C1308:G1308 C1309:G1309 C1310:G1310 C1311:G1311 C1312:G1312 C1313:G1313 C1314:G1314 C1315:G1315 C1316:G1316 C1317:G1317 C1318:G1318 C1319:G1319 C1320:G1320 C1321:G1321 C1322:G1322 C1323:G1323 C1324:G1324 C1325:G1325 C1326:G1326 C1327:G1327 C1328:G1328 C1329:G1329 C1330:G1330 C1331:G1331 C1332:G1332 C1333:G1333 C1334:G1334 C1335:G1335 C1336:G1336 C1337:G1337 C1338:G1338 C1339:G1339 C1340:G1340 C1341:G1341 C1342:G1342 C1343:G1343 C1344:G1344 C1345:G1345 C1346:G1346 C1347:G1347 C1348:G1348 C1349:G1349 C1350:G1350 C1351:G1351 C1352:G1352 C1353:G1353 C1354:G1354 C1355:G1355 C1356:G1356 C1357:G1357 C1358:G1358 C1359:G1359 C1360:G1360 C1361:G1361 C1362:G1362 C1363:G1363 C1364:G1364 C1365:G1365 C1366:G1366 C1367:G1367 C1368:G1368 C1369:G1369 C1370:G1370 C1371:G1371 C1372:G1372 C1373:G1373 C1374:G1374 C1375:G1375 C1376:G1376 C1377:G1377 C1378:G1378 C1379:G1379 C1380:G1380 C1381:G1381 C1382:G1382 C1383:G1383 C1384:G1384 C1385:G1385 C1386:G1386 C1387:G1387 C1388:G1388 C1389:G1389 C1390:G1390 C1391:G1391 C1392:G1392 C1393:G1393 C1394:G1394 C1395:G1395 C1396:G1396 C1397:G1397 C1398:G1398 C1399:G1399 C1400:G1400 C1401:G1401 C1402:G1402 C1403:G1403 C1404:G1404 C1405:G1405 C1406:G1406 C1407:G1407 C1408:G1408 C1409:G1409 C1410:G1410 C1411:G1411 C1412:G1412 C1413:G1413 C1414:G1414 C1415:G1415 C1416:G1416 C1417:G1417 C1418:G1418 C1419:G1419 C1420:G1420 C1421:G1421 C1422:G1422 C1423:G1423 C1424:G1424 C1425:G1425 C1426:G1426 C1427:G1427 C1428:G1428 C1429:G1429 C1430:G1430 C1431:G1431 C1432:G1432 C1433:G1433 C1434:G1434 C1435:G1435 C1436:G1436 C1437:G1437 C1438:G1438 C1439:G1439 C1440:G1440 C1441:G1441 C1442:G1442 C1443:G1443 C1444:G1444 C1445:G1445 C1446:G1446 C1447:G1447 C1448:G1448 C1449:G1449 C1450:G1450 C1451:G1451 C1452:G1452 C1453:G1453 C1454:G1454 C1455:G1455 C1456:G1456 C1457:G1457 C1458:G1458 C1459:G1459 C1460:G1460 C1461:G1461 C1462:G1462 C1463:G1463 C1464:G1464 C1465:G1465 C1466:G1466 C1467:G1467 C1468:G1468 C1469:G1469 C1470:G1470 C1471:G1471 C1472:G1472 C1473:G1473 C1474:G1474 C1475:G1475 C1476:G1476 C1477:G1477 C1478:G1478 C1479:G1479 C1480:G1480 C1481:G1481 C1482:G1482 C1483:G1483 C1484:G1484 C1485:G1485 C1486:G1486 C1487:G1487 C1488:G1488 C1489:G1489 C1490:G1490 C1491:G1491 C1492:G1492 C1493:G1493 C1494:G1494 C1495:G1495 C1496:G1496 C1497:G1497 C1498:G1498 C1499:G1499 C1500:G1500 C1501:G1501 C1502:G1502 C1503:G1503 C1504:G1504 C1505:G1505 C1506:G1506 C1507:G1507 C1508:G1508 C1509:G1509 C1510:G1510 C1511:G1511 C1512:G1512 C1513:G1513 C1514:G1514 C1515:G1515 C1516:G1516 C1517:G1517 C1518:G1518 C1519:G1519 C1520:G1520 C1521:G1521 C1522:G1522 C1523:G1523 C1524:G1524 C1525:G1525 C1526:G1526 C1527:G1527 C1528:G1528 C1529:G1529 C1530:G1530 C1531:G1531 C1532:G1532 C1533:G1533 C1534:G1534 C1535:G1535 C1536:G1536 C1537:G1537 C1538:G1538 C1539:G1539 C1540:G1540 C1541:G1541 C1542:G1542 C1543:G1543 C1544:G1544 C1545:G1545 C1546:G1546 C1547:G1547 C1548:G1548 C1549:G1549 C1550:G1550 C1551:G1551 C1552:G1552 C1553:G1553 C1554:G1554 C1555:G1555 C1556:G1556 C1557:G1557 C1558:G1558 C1559:G1559 C1560:G1560 C1561:G1561 C1562:G1562 C1563:G1563 C1564:G1564 C1565:G1565 C1566:G1566 C1567:G1567 C1568:G1568 C1569:G1569 C1570:G1570 C1571:G1571 C1572:G1572 C1573:G1573 C1574:G1574 C1575:G1575 C1576:G1576 C1577:G1577 C1578:G1578 C1579:G1579 C1580:G1580 C1581:G1581 C1582:G1582 C1583:G1583 C1584:G1584 C1585:G1585 C1586:G1586 C1587:G1587 C1588:G1588 C1589:G1589 C1590:G1590 C1591:G1591 C1592:G1592 C1593:G1593 C1594:G1594 C1595:G1595 C1596:G1596 C1597:G1597 C1598:G1598 C1599:G1599 C1600:G1600 C1601:G1601 C1602:G1602 C1603:G1603 C1604:G1604 C1605:G1605 C1606:G1606 C1607:G1607 C1608:G1608 C1609:G1609 C1610:G1610 C1611:G1611 C1612:G1612 C1613:G1613 C1614:G1614 C1615:G1615 C1616:G1616 C1617:G1617 C1618:G1618 C1619:G1619 C1620:G1620 C1621:G1621 C1622:G1622 C1623:G1623 C1624:G1624 C1625:G1625 C1626:G1626 C1627:G1627 C1628:G1628 C1629:G1629 C1630:G1630 C1631:G1631 C1632:G1632 C1633:G1633 C1634:G1634 C1635:G1635 C1636:G1636 C1637:G1637 C1638:G1638 C1639:G1639 C1640:G1640 C1641:G1641 C1642:G1642 C1643:G1643 C1644:G1644 C1645:G1645 C1646:G1646 C1647:G1647 C1648:G1648 C1649:G1649 C1650:G1650 C1651:G1651 C1652:G1652 C1653:G1653 C1654:G1654 C1655:G1655 C1656:G1656 C1657:G1657 C1658:G1658 C1659:G1659 C1660:G1660 C1661:G1661 C1662:G1662 C1663:G1663 C1664:G1664 C1665:G1665 C1666:G1666 C1667:G1667 C1668:G1668 C1669:G1669 C1670:G1670 C1671:G1671 C1672:G1672 C1673:G1673 C1674:G1674 C1675:G1675 C1676:G1676 C1677:G1677 C1678:G1678 C1679:G1679 C1680:G1680 C1681:G1681 C1682:G1682 C1683:G1683 C1684:G1684 C1685:G1685 C1686:G1686 C1687:G1687 C1688:G1688 C1689:G1689 C1690:G1690 C1691:G1691 C1692:G1692 C1693:G1693 C1694:G1694 C1695:G1695 C1696:G1696 C1697:G1697 C1698:G1698 C1699:G1699 C1700:G1700 C1701:G1701 C1702:G1702 C1703:G1703 C1704:G1704 C1705:G1705 C1706:G1706 C1707:G1707 C1708:G1708 C1709:G1709 C1710:G1710 C1711:G1711 C1712:G1712 C1713:G1713 C1714:G1714 C1715:G1715 C1716:G1716 C1717:G1717 C1718:G1718 C1719:G1719 C1720:G1720 C1721:G1721 C1722:G1722 C1723:G1723 C1724:G1724 C1725:G1725 C1726:G1726 C1727:G1727 C1728:G1728 C1729:G1729 C1730:G1730 C1731:G1731 C1732:G1732 C1733:G1733 C1734:G1734 C1735:G1735 C1736:G1736 C1737:G1737 C1738:G1738 C1739:G1739 C1740:G1740 C1741:G1741 C1742:G1742 C1743:G1743 C1744:G1744 C1745:G1745 C1746:G1746 C1747:G1747 C1748:G1748 C1749:G1749 C1750:G1750 C1751:G1751 C1752:G1752 C1753:G1753 C1754:G1754 C1755:G1755 C1756:G1756 C1757:G1757 C1758:G1758 C1759:G1759 C1760:G1760 C1761:G1761 C1762:G1762 C1763:G1763 C1764:G1764 C1765:G1765 C1766:G1766 C1767:G1767 C1768:G1768 C1769:G1769 C1770:G1770 C1771:G1771 C1772:G1772 C1773:G1773 C1774:G1774 C1775:G1775 C1776:G1776 C1777:G1777 C1778:G1778 C1779:G1779 C1780:G1780 C1781:G1781 C1782:G1782 C1783:G1783 C1784:G1784 C1785:G1785 C1786:G1786 C1787:G1787 C1788:G1788 C1789:G1789 C1790:G1790 C1791:G1791 C1792:G1792 C1793:G1793 C1794:G1794 C1795:G1795 C1796:G1796 C1797:G1797 C1798:G1798 C1799:G1799 C1800:G1800 C1801:G1801 C1802:G1802 C1803:G1803 C1804:G1804 C1805:G1805 C1806:G1806 C1807:G1807 C1808:G1808 C1809:G1809 C1810:G1810 C1811:G1811 C1812:G1812 C1813:G1813 C1814:G1814 C1815:G1815 C1816:G1816 C1817:G1817 C1818:G1818 C1819:G1819 C1820:G1820 C1821:G1821 C1822:G1822 C1823:G1823 C1824:G1824 C1825:G1825 C1826:G1826 C1827:G1827 C1828:G1828 C1829:G1829 C1830:G1830 C1831:G1831 C1832:G1832 C1833:G1833 C1834:G1834 C1835:G1835 C1836:G1836 C1837:G1837 C1838:G1838 C1839:G1839 C1840:G1840 C1841:G1841 C1842:G1842 C1843:G1843 C1844:G1844 C1845:G1845 C1846:G1846 C1847:G1847 C1848:G1848 C1849:G1849 C1850:G1850 C1851:G1851 C1852:G1852 C1853:G1853 C1854:G1854 C1855:G1855 C1856:G1856 C1857:G1857 C1858:G1858 C1859:G1859 C1860:G1860 C1861:G1861 C1862:G1862 C1863:G1863 C1864:G1864 C1865:G1865 C1866:G1866 C1867:G1867 C1868:G1868 C1869:G1869 C1870:G1870 C1871:G1871 C1872:G1872 C1873:G1873 C1874:G1874 C1875:G1875 C1876:G1876 C1877:G1877 C1878:G1878 C1879:G1879 C1880:G1880 C1881:G1881 C1882:G1882 C1883:G1883 C1884:G1884 C1885:G1885 C1886:G1886 C1887:G1887 C1888:G1888 C1889:G1889 C1890:G1890 C1891:G1891 C1892:G1892 C1893:G1893 C1894:G1894 C1895:G1895 C1896:G1896 C1897:G1897 C1898:G1898 C1899:G1899 C1900:G1900 C1901:G1901 C1902:G1902 C1903:G1903 C1904:G1904 C1905:G1905 C1906:G1906 C1907:G1907 C1908:G1908 C1909:G1909 C1910:G1910 C1911:G1911 C1912:G1912 C1913:G1913 C1914:G1914 C1915:G1915 C1916:G1916 C1917:G1917 C1918:G1918 C1919:G1919 C1920:G1920 C1921:G1921 C1922:G1922 C1923:G1923 C1924:G1924 C1925:G1925 C1926:G1926 C1927:G1927 C1928:G1928 C1929:G1929 C1930:G1930 C1931:G1931 C1932:G1932 C1933:G1933 C1934:G1934 C1935:G1935 C1936:G1936 C1937:G1937 C1938:G1938 C1939:G1939 C1940:G1940 C1941:G1941 C1942:G1942 C1943:G1943 C1944:G1944 C1945:G1945 C1946:G1946 C1947:G1947 C1948:G1948 C1949:G1949 C1950:G1950 C1951:G1951 C1952:G1952 C1953:G1953 C1954:G1954 C1955:G1955 C1956:G1956 C1957:G1957 C1958:G1958 C1959:G1959 C1960:G1960 C1961:G1961 C1962:G1962 C1963:G1963 C1964:G1964 C1965:G1965 C1966:G1966 C1967:G1967 C1968:G1968 C1969:G1969 C1970:G1970 C1971:G1971 C1972:G1972 C1973:G1973 C1974:G1974 C1975:G1975 C1976:G1976 C1977:G1977 C1978:G1978 C1979:G1979 C1980:G1980 C1981:G1981 C1982:G1982 C1983:G1983 C1984:G1984 C1985:G1985 C1986:G1986 C1987:G1987 C1988:G1988 C1989:G1989 C1990:G1990 C1991:G1991 C1992:G1992 C1993:G1993 C1994:G1994 C1995:G1995 C1996:G1996 C1997:G1997 C1998:G1998 C1999:G1999 C2000:G2000 C2001:G2001 C2002:G2002 C2003:G2003 C2004:G2004 C2005:G2005 C2006:G2006 C2007:G2007 C2008:G2008 C2009:G2009 C2010:G2010 C2011:G2011 C2012:G2012 C2013:G2013 C2014:G2014 C2015:G2015 C2016:G2016 C2017:G2017 C2018:G2018 C2019:G2019 C2020:G2020 C2021:G2021 C2022:G2022 C2023:G2023 C2024:G2024 C2025:G2025 C2026:G2026 C2027:G2027 C2028:G2028 C2029:G2029 C2030:G2030 C2031:G2031 C2032:G2032 C2033:G2033 C2034:G2034 C2035:G2035 C2036:G2036 C2037:G2037 C2038:G2038 C2039:G2039 C2040:G2040 C2041:G2041 C2042:G2042 C2043:G2043 C2044:G2044 C2045:G2045 C2046:G2046 C2047:G2047 C2048:G2048 C2049:G2049 C2050:G2050 C2051:G2051 C2052:G2052 C2053:G2053 C2054:G2054 C2055:G2055 C2056:G2056 C2057:G2057 C2058:G2058 C2059:G2059 C2060:G2060 C2061:G2061 C2062:G2062 C2063:G2063 C2064:G2064 C2065:G2065 C2066:G2066 C2067:G2067 C2068:G2068 C2069:G2069 C2070:G2070 C2071:G2071 C2072:G2072 C2073:G2073 C2074:G2074 C2075:G2075 C2076:G2076 C2077:G2077 C2078:G2078 C2079:G2079 C2080:G2080 C2081:G2081 C2082:G2082 C2083:G2083 C2084:G2084 C2085:G2085 C2086:G2086 C2087:G2087 C2088:G2088 C2089:G2089 C2090:G2090 C2091:G2091 C2092:G2092 C2093:G2093 C2094:G2094 C2095:G2095 C2096:G2096 C2097:G2097 C2098:G2098 C2099:G2099 C2100:G2100 C2101:G2101 C2102:G2102 C2103:G2103 C2104:G2104 C2105:G2105 C2106:G2106 C2107:G2107 C2108:G2108 C2109:G2109 C2110:G2110 C2111:G2111 C2112:G2112 C2113:G2113 C2114:G2114 C2115:G2115 C2116:G2116 C2117:G2117 C2118:G2118 C2119:G2119 C2120:G2120 C2121:G2121 C2122:G2122 C2123:G2123 C2124:G2124 C2125:G2125 C2126:G2126 C2127:G2127 C2128:G2128 C2129:G2129 C2130:G2130 C2131:G2131 C2132:G2132 C2133:G2133 C2134:G2134 C2135:G2135 C2136:G2136 C2137:G2137 C2138:G2138 C2139:G2139 C2140:G2140 C2141:G2141 C2142:G2142 C2143:G2143 C2144:G2144 C2145:G2145 C2146:G2146 C2147:G2147 C2148:G2148 C2149:G2149 C2150:G2150 C2151:G2151 C2152:G2152 C2153:G2153 C2154:G2154 C2155:G2155 C2156:G2156 C2157:G2157 C2158:G2158 C2159:G2159 C2160:G2160 C2161:G2161 C2162:G2162 C2163:G2163 C2164:G2164 C2165:G2165 C2166:G2166 C2167:G2167 C2168:G2168 C2169:G2169 C2170:G2170 C2171:G2171 C2172:G2172 C2173:G2173 C2174:G2174 C2175:G2175 C2176:G2176 C2177:G2177 C2178:G2178 C2179:G2179 C2180:G2180 C2181:G2181 C2182:G2182 C2183:G2183 C2184:G2184 C2185:G2185 C2186:G2186 C2187:G2187 C2188:G2188 C2189:G2189 C2190:G2190 C2191:G2191 C2192:G2192 C2193:G2193 C2194:G2194 C2195:G2195 C2196:G2196 C2197:G2197 C2198:G2198 C2199:G2199 C2200:G2200 C2201:G2201 C2202:G2202 C2203:G2203 C2204:G2204 C2205:G2205 C2206:G2206 C2207:G2207 C2208:G2208 C2209:G2209 C2210:G2210 C2211:G2211 C2212:G2212 C2213:G2213 C2214:G2214 C2215:G2215 C2216:G2216 C2217:G2217 C2218:G2218 C2219:G2219 C2220:G2220 C2221:G2221 C2222:G2222 C2223:G2223 C2224:G2224 C2225:G2225 C2226:G2226 C2227:G2227 C2228:G2228 C2229:G2229 C2230:G2230 C2231:G2231 C2232:G2232 C2233:G2233 C2234:G2234 C2235:G2235 C2236:G2236 C2237:G2237 C2238:G2238 C2239:G2239 C2240:G2240 C2241:G2241 C2242:G2242 C2243:G2243 C2244:G2244 C2245:G2245 C2246:G2246 C2247:G2247 C2248:G2248 C2249:G2249 C2250:G2250 C2251:G2251 C2252:G2252 C2253:G2253 C2254:G2254 C2255:G2255 C2256:G2256 C2257:G2257 C2258:G2258 C2259:G2259 C2260:G2260 C2261:G2261 C2262:G2262 C2263:G2263 C2264:G2264 C2265:G2265 C2266:G2266 C2267:G2267 C2268:G2268 C2269:G2269 C2270:G2270 C2271:G2271 C2272:G2272 C2273:G2273 C2274:G2274 C2275:G2275 C2276:G2276 C2277:G2277 C2278:G2278 C2279:G2279 C2280:G2280 C2281:G2281 C2282:G2282 C2283:G2283 C2284:G2284 C2285:G2285 C2286:G2286 C2287:G2287 C2288:G2288 C2289:G2289 C2290:G2290 C2291:G2291 C2292:G2292 C2293:G2293 C2294:G2294 C2295:G2295 C2296:G2296 C2297:G2297 C2298:G2298 C2299:G2299 C2300:G2300 C2301:G2301 C2302:G2302 C2303:G2303 C2304:G2304 C2305:G2305 C2306:G2306 C2307:G2307 C2308:G2308 C2309:G2309 C2310:G2310 C2311:G2311 C2312:G2312 C2313:G2313 C2314:G2314 C2315:G2315 C2316:G2316 C2317:G2317 C2318:G2318 C2319:G2319 C2320:G2320 C2321:G2321 C2322:G2322 C2323:G2323 C2324:G2324 C2325:G2325 C2326:G2326 C2327:G2327 C2328:G2328 C2329:G2329 C2330:G2330 C2331:G2331 C2332:G2332 C2333:G2333 C2334:G2334 C2335:G2335 C2336:G2336 C2337:G2337 C2338:G2338 C2339:G2339 C2340:G2340 C2341:G2341 C2342:G2342 C2343:G2343 C2344:G2344 C2345:G2345 C2346:G2346 C2347:G2347 C2348:G2348 C2349:G2349 C2350:G2350 C2351:G2351 C2352:G2352 C2353:G2353 C2354:G2354 C2355:G2355 C2356:G2356 C2357:G2357 C2358:G2358 C2359:G2359 C2360:G2360 C2361:G2361 C2362:G2362 C2363:G2363 C2364:G2364 C2365:G2365 C2366:G2366 C2367:G2367 C2368:G2368 C2369:G2369 C2370:G2370 C2371:G2371 C2372:G2372 C2373:G2373 C2374:G2374 C2375:G2375 C2376:G2376 C2377:G2377 C2378:G2378 C2379:G2379 C2380:G2380 C2381:G2381 C2382:G2382 C2383:G2383 C2384:G2384 C2385:G2385 C2386:G2386 C2387:G2387 C2388:G2388 C2389:G2389 C2390:G2390 C2391:G2391 C2392:G2392 C2393:G2393 C2394:G2394 C2395:G2395 C2396:G2396 C2397:G2397 C2398:G2398 C2399:G2399 C2400:G2400 C2401:G2401 C2402:G2402 C2403:G2403 C2404:G2404 C2405:G2405 C2406:G2406 C2407:G2407 C2408:G2408 C2409:G2409 C2410:G2410 C2411:G2411 C2412:G2412 C2413:G2413 C2414:G2414 C2415:G2415 C2416:G2416 C2417:G2417 C2418:G2418 C2419:G2419 C2420:G2420 C2421:G2421 C2422:G2422 C2423:G2423 C2424:G2424 C2425:G2425 C2426:G2426 C2427:G2427 C2428:G2428 C2429:G2429 C2430:G2430 C2431:G2431 C2432:G2432 C2433:G2433 C2434:G2434 C2435:G2435 C2436:G2436 C2437:G2437 C2438:G2438 C2439:G2439 C2440:G2440 C2441:G2441 C2442:G2442 C2443:G2443 C2444:G2444 C2445:G2445 C2446:G2446 C2447:G2447 C2448:G2448 C2449:G2449 C2450:G2450 C2451:G2451 C2452:G2452 C2453:G2453 C2454:G2454 C2455:G2455 C2456:G2456 C2457:G2457 C2458:G2458 C2459:G2459 C2460:G2460 C2461:G2461 C2462:G2462 C2463:G2463 C2464:G2464 C2465:G2465 C2466:G2466 C2467:G2467 C2468:G2468 C2469:G2469 C2470:G2470 C2471:G2471 C2472:G2472 C2473:G2473 C2474:G2474 C2475:G2475 C2476:G2476 C2477:G2477 C2478:G2478 C2479:G2479 C2480:G2480 C2481:G2481 C2482:G2482 C2483:G2483 C2484:G2484 C2485:G2485 C2486:G2486 C2487:G2487 C2488:G2488 C2489:G2489 C2490:G2490 C2491:G2491 C2492:G2492 C2493:G2493 C2494:G2494 C2495:G2495 C2496:G2496 C2497:G2497 C2498:G2498 C2499:G2499 C2500:G2500 C2501:G2501 C2502:G2502 C2503:G2503 C2504:G2504 C2505:G2505 C2506:G2506 C2507:G2507 C2508:G2508 C2509:G2509 C2510:G2510 C2511:G2511 C2512:G2512 C2513:G2513 C2514:G2514 C2515:G2515 C2516:G2516 C2517:G2517 C2518:G2518 C2519:G2519 C2520:G2520 C2521:G2521 C2522:G2522 C2523:G2523 C2524:G2524 C2525:G2525 C2526:G2526 C2527:G2527 C2528:G2528 C2529:G2529 C2530:G2530 C2531:G2531 C2532:G2532 C2533:G2533 C2534:G2534 C2535:G2535 C2536:G2536 C2537:G2537 C2538:G2538 C2539:G2539 C2540:G2540 C2541:G2541 C2542:G2542 C2543:G2543 C2544:G2544 C2545:G2545 C2546:G2546 C2547:G2547 C2548:G2548 C2549:G2549 C2550:G2550 C2551:G2551 C2552:G2552 C2553:G2553 C2554:G2554 C2555:G2555 C2556:G2556 C2557:G2557 C2558:G2558 C2559:G2559 C2560:G2560 C2561:G2561 C2562:G2562 C2563:G2563 C2564:G2564 C2565:G2565 C2566:G2566 C2567:G2567 C2568:G2568 C2569:G2569 C2570:G2570 C2571:G2571 C2572:G2572 C2573:G2573 C2574:G2574 C2575:G2575 C2576:G2576 C2577:G2577 C2578:G2578 C2579:G2579 C2580:G2580 C2581:G2581 C2582:G2582 C2583:G2583 C2584:G2584 C2585:G2585 C2586:G2586 C2587:G2587 C2588:G2588 C2589:G2589 C2590:G2590 C2591:G2591 C2592:G2592 C2593:G2593 C2594:G2594 C2595:G2595 C2596:G2596 C2597:G2597 C2598:G2598 C2599:G2599 C2600:G2600 C2601:G2601 C2602:G2602 C2603:G2603 C2604:G2604 C2605:G2605 C2606:G2606 C2607:G2607 C2608:G2608 C2609:G2609 C2610:G2610 C2611:G2611 C2612:G2612 C2613:G2613 C2614:G2614 C2615:G2615 C2616:G2616 C2617:G2617 C2618:G2618 C2619:G2619 C2620:G2620 C2621:G2621 C2622:G2622 C2623:G2623 C2624:G2624 C2625:G2625 C2626:G2626 C2627:G2627 C2628:G2628 C2629:G2629 C2630:G2630 C2631:G2631 C2632:G2632 C2633:G2633 C2634:G2634 C2635:G2635 C2636:G2636 C2637:G2637 C2638:G2638 C2639:G2639 C2640:G2640 C2641:G2641 C2642:G2642 C2643:G2643 C2644:G2644 C2645:G2645 C2646:G2646 C2647:G2647 C2648:G2648 C2649:G2649 C2650:G2650 C2651:G2651 C2652:G2652 C2653:G2653 C2654:G2654 C2655:G2655 C2656:G2656 C2657:G2657 C2658:G2658 C2659:G2659 C2660:G2660 C2661:G2661 C2662:G2662 C2663:G2663 C2664:G2664 C2665:G2665 C2666:G2666 C2667:G2667 C2668:G2668 C2669:G2669 C2670:G2670 C2671:G2671 C2672:G2672 C2673:G2673 C2674:G2674 C2675:G2675 C2676:G2676 C2677:G2677 C2678:G2678 C2679:G2679 C2680:G2680 C2681:G2681 C2682:G2682 C2683:G2683 C2684:G2684 C2685:G2685 C2686:G2686 C2687:G2687 C2688:G2688 C2689:G2689 C2690:G2690 C2691:G2691 C2692:G2692 C2693:G2693 C2694:G2694 C2695:G2695 C2696:G2696 C2697:G2697 C2698:G2698 C2699:G2699 C2700:G2700 C2701:G2701 C2702:G2702 C2703:G2703 C2704:G2704 C2705:G2705 C2706:G2706 C2707:G2707 C2708:G2708 C2709:G2709 C2710:G2710 C2711:G2711 C2712:G2712 C2713:G2713 C2714:G2714 C2715:G2715 C2716:G2716 C2717:G2717 C2718:G2718 C2719:G2719 C2720:G2720 C2721:G2721 C2722:G2722 C2723:G2723 C2724:G2724 C2725:G2725 C2726:G2726 C2727:G2727 C2728:G2728 C2729:G2729 C2730:G2730 C2731:G2731 C2732:G2732 C2733:G2733 C2734:G2734 C2735:G2735 C2736:G2736 C2737:G2737 C2738:G2738 C2739:G2739 C2740:G2740 C2741:G2741 C2742:G2742 C2743:G2743 C2744:G2744 C2745:G2745 C2746:G2746 C2747:G2747 C2748:G2748 C2749:G2749 C2750:G2750 C2751:G2751 C2752:G2752 C2753:G2753 C2754:G2754 C2755:G2755 C2756:G2756 C2757:G2757 C2758:G2758 C2759:G2759 C2760:G2760 C2761:G2761 C2762:G2762 C2763:G2763 C2764:G2764 C2765:G2765 C2766:G2766 C2767:G2767 C2768:G2768 C2769:G2769 C2770:G2770 C2771:G2771 C2772:G2772 C2773:G2773 C2774:G2774 C2775:G2775 C2776:G2776 C2777:G2777 C2778:G2778 C2779:G2779 C2780:G2780 C2781:G2781 C2782:G2782 C2783:G2783 C2784:G2784 C2785:G2785 C2786:G2786 C2787:G2787 C2788:G2788 C2789:G2789 C2790:G2790 C2791:G2791 C2792:G2792 C2793:G2793 C2794:G2794 C2795:G2795 C2796:G2796 C2797:G2797 C2798:G2798 C2799:G2799 C2800:G2800 C2801:G2801 C2802:G2802 C2803:G2803 C2804:G2804 C2805:G2805 C2806:G2806 C2807:G2807 C2808:G2808 C2809:G2809 C2810:G2810 C2811:G2811 C2812:G2812 C2813:G2813 C2814:G2814 C2815:G2815 C2816:G2816 C2817:G2817 C2818:G2818 C2819:G2819 C2820:G2820 C2821:G2821 C2822:G2822 C2823:G2823 C2824:G2824 C2825:G2825 C2826:G2826 C2827:G2827 C2828:G2828 C2829:G2829 C2830:G2830 C2831:G2831 C2832:G2832 C2833:G2833 C2834:G2834 C2835:G2835 C2836:G2836 C2837:G2837 C2838:G2838 C2839:G2839 C2840:G2840 C2841:G2841 C2842:G2842 C2843:G2843 C2844:G2844 C2845:G2845 C2846:G2846 C2847:G2847 C2848:G2848 C2849:G2849 C2850:G2850 C2851:G2851 C2852:G2852 C2853:G2853 C2854:G2854 C2855:G2855 C2856:G2856 C2857:G2857 C2858:G2858 C2859:G2859 C2860:G2860 C2861:G2861 C2862:G2862 C2863:G2863 C2864:G2864 C2865:G2865 C2866:G2866 C2867:G2867 C2868:G2868 C2869:G2869 C2870:G2870 C2871:G2871 C2872:G2872 C2873:G2873 C2874:G2874 C2875:G2875 C2876:G2876 C2877:G2877 C2878:G2878 C2879:G2879 C2880:G2880 C2881:G2881 C2882:G2882 C2883:G2883 C2884:G2884 C2885:G2885 C2886:G2886 C2887:G2887 C2888:G2888 C2889:G2889 C2890:G2890 C2891:G2891 C2892:G2892 C2893:G2893 C2894:G2894 C2895:G2895 C2896:G2896 C2897:G2897 C2898:G2898 C2899:G2899 C2900:G2900 C2901:G2901 C2902:G2902 C2903:G2903 C2904:G2904 C2905:G2905 C2906:G2906 C2907:G2907 C2908:G2908 C2909:G2909 C2910:G2910 C2911:G2911 C2912:G2912 C2913:G2913 C2914:G2914 C2915:G2915 C2916:G2916 C2917:G2917 C2918:G2918 C2919:G2919 C2920:G2920 C2921:G2921 C2922:G2922 C2923:G2923 C2924:G2924 C2925:G2925 C2926:G2926 C2927:G2927 C2928:G2928 C2929:G2929 C2930:G2930 C2931:G2931 C2932:G2932 C2933:G2933 C2934:G2934 C2935:G2935 C2936:G2936 C2937:G2937 C2938:G2938 C2939:G2939 C2940:G2940 C2941:G2941 C2942:G2942 C2943:G2943 C2944:G2944 C2945:G2945 C2946:G2946 C2947:G2947 C2948:G2948 C2949:G2949 C2950:G2950 C2951:G2951 C2952:G2952 C2953:G2953 C2954:G2954 C2955:G2955 C2956:G2956 C2957:G2957 C2958:G2958 C2959:G2959 C2960:G2960 C2961:G2961 C2962:G2962 C2963:G2963 C2964:G2964 C2965:G2965 C2966:G2966 C2967:G2967 C2968:G2968 C2969:G2969 C2970:G2970 C2971:G2971 C2972:G2972 C2973:G2973 C2974:G2974 C2975:G2975 C2976:G2976 C2977:G2977 C2978:G2978 C2979:G2979 C2980:G2980 C2981:G2981 C2982:G2982 C2983:G2983 C2984:G2984 C2985:G2985 C2986:G2986 C2987:G2987 C2988:G2988 C2989:G2989 C2990:G2990 C2991:G2991 C2992:G2992 C2993:G2993 C2994:G2994 C2995:G2995 C2996:G2996 C2997:G2997 C2998:G2998 C2999:G2999 C3000:G3000 C3001:G3001 C3002:G3002 C3003:G3003 C3004:G3004 C3005:G3005 C3006:G3006 C3007:G3007 C3008:G3008 C3009:G3009 C3010:G3010 C3011:G3011 C3012:G3012 C3013:G3013 C3014:G3014 C3015:G3015 C3016:G3016 C3017:G3017 C3018:G3018 C3019:G3019 C3020:G3020 C3021:G3021 C3022:G3022 C3023:G3023 C3024:G3024 C3025:G3025 C3026:G3026 C3027:G3027 C3028:G3028 C3029:G3029 C3030:G3030 C3031:G3031 C3032:G3032 C3033:G3033 C3034:G3034 C3035:G3035 C3036:G3036 C3037:G3037 C3038:G3038 C3039:G3039 C3040:G3040 C3041:G3041 C3042:G3042 C3043:G3043 C3044:G3044 C3045:G3045 C3046:G3046 C3047:G3047 C3048:G3048 C3049:G3049 C3050:G3050 C3051:G3051 C3052:G3052 C3053:G3053 C3054:G3054 C3055:G3055 C3056:G3056 C3057:G3057 C3058:G3058 C3059:G3059 C3060:G3060 C3061:G3061 C3062:G3062 C3063:G3063 C3064:G3064 C3065:G3065 C3066:G3066 C3067:G3067 C3068:G3068 C3069:G3069 C3070:G3070 C3071:G3071 C3072:G3072 C3073:G3073 C3074:G3074 C3075:G3075 C3076:G3076 C3077:G3077 C3078:G3078 C3079:G3079 C3080:G3080 C3081:G3081 C3082:G3082 C3083:G3083 C3084:G3084 C3085:G3085 C3086:G3086 C3087:G3087 C3088:G3088 C3089:G3089 C3090:G3090 C3091:G3091 C3092:G3092 C3093:G3093 C3094:G3094 C3095:G3095 C3096:G3096 C3097:G3097 C3098:G3098 C3099:G3099 C3100:G3100 C3101:G3101 C3102:G3102 C3103:G3103 C3104:G3104 C3105:G3105 C3106:G3106 C3107:G3107 C3108:G3108 C3109:G3109 C3110:G3110 C3111:G3111 C3112:G3112 C3113:G3113 C3114:G3114 C3115:G3115 C3116:G3116 C3117:G3117 C3118:G3118 C3119:G3119 C3120:G3120 C3121:G3121 C3122:G3122 C3123:G3123 C3124:G3124 C3125:G3125 C3126:G3126 C3127:G3127 C3128:G3128 C3129:G3129 C3130:G3130 C3131:G3131 C3132:G3132 C3133:G3133 C3134:G3134 C3135:G3135 C3136:G3136 C3137:G3137 C3138:G3138 C3139:G3139 C3140:G3140 C3141:G3141 C3142:G3142 C3143:G3143 C3144:G3144 C3145:G3145 C3146:G3146 C3147:G3147 C3148:G3148 C3149:G3149 C3150:G3150 C3151:G3151 C3152:G3152 C3153:G3153 C3154:G3154 C3155:G3155 C3156:G3156 C3157:G3157 C3158:G3158 C3159:G3159 C3160:G3160 C3161:G3161 C3162:G3162 C3163:G3163 C3164:G3164 C3165:G3165 C3166:G3166 C3167:G3167 C3168:G3168 C3169:G3169 C3170:G3170 C3171:G3171 C3172:G3172 C3173:G3173 C3174:G3174 C3175:G3175 C3176:G3176 C3177:G3177 C3178:G3178 C3179:G3179 C3180:G3180 C3181:G3181 C3182:G3182 C3183:G3183 C3184:G3184 C3185:G3185 C3186:G3186 C3187:G3187 C3188:G3188 C3189:G3189 C3190:G3190 C3191:G3191 C3192:G3192 C3193:G3193 C3194:G3194 C3195:G3195 C3196:G3196 C3197:G3197 C3198:G3198 C3199:G3199 C3200:G3200 C3201:G3201 C3202:G3202 C3203:G3203 C3204:G3204 C3205:G3205 C3206:G3206 C3207:G3207 C3208:G3208 C3209:G3209 C3210:G3210 C3211:G3211 C3212:G3212 C3213:G3213 C3214:G3214 C3215:G3215 C3216:G3216 C3217:G3217 C3218:G3218 C3219:G3219 C3220:G3220 C3221:G3221 C3222:G3222 C3223:G3223 C3224:G3224 C3225:G3225 C3226:G3226 C3227:G3227 C3228:G3228 C3229:G3229 C3230:G3230 C3231:G3231 C3232:G3232 C3233:G3233 C3234:G3234 C3235:G3235 C3236:G3236 C3237:G3237 C3238:G3238 C3239:G3239 C3240:G3240 C3241:G3241 C3242:G3242 C3243:G3243 C3244:G3244 C3245:G3245 C3246:G3246 C3247:G3247 C3248:G3248 C3249:G3249 C3250:G3250 C3251:G3251 C3252:G3252 C3253:G3253 C3254:G3254 C3255:G3255 C3256:G3256 C3257:G3257 C3258:G3258 C3259:G3259 C3260:G3260 C3261:G3261 C3262:G3262 C3263:G3263 C3264:G3264 C3265:G3265 C3266:G3266 C3267:G3267 C3268:G3268 C3269:G3269 C3270:G3270 C3271:G3271 C3272:G3272 C3273:G3273 C3274:G3274 C3275:G3275 C3276:G3276 C3277:G3277 C3278:G3278 C3279:G3279 C3280:G3280 C3281:G3281 C3282:G3282 C3283:G3283 C3284:G3284 C3285:G3285 C3286:G3286 C3287:G3287 C3288:G3288 C3289:G3289 C3290:G3290 C3291:G3291 C3292:G3292 C3293:G3293 C3294:G3294 C3295:G3295 C3296:G3296 C3297:G3297 C3298:G3298 C3299:G3299 C3300:G3300 C3301:G3301 C3302:G3302 C3303:G3303 C3304:G3304 C3305:G3305 C3306:G3306 C3307:G3307 C3308:G3308 C3309:G3309 C3310:G3310 C3311:G3311 C3312:G3312 C3313:G3313 C3314:G3314 C3315:G3315 C3316:G3316 C3317:G3317 C3318:G3318 C3319:G3319 C3320:G3320 C3321:G3321 C3322:G3322 C3323:G3323 C3324:G3324 C3325:G3325 C3326:G3326 C3327:G3327 C3328:G3328 C3329:G3329 C3330:G3330 C3331:G3331 C3332:G3332 C3333:G3333 C3334:G3334 C3335:G3335 C3336:G3336 C3337:G3337 C3338:G3338 C3339:G3339 C3340:G3340 C3341:G3341 C3342:G3342 C3343:G3343 C3344:G3344 C3345:G3345 C3346:G3346 C3347:G3347 C3348:G3348 C3349:G3349 C3350:G3350 C3351:G3351 C3352:G3352 C3353:G3353 C3354:G3354 C3355:G3355 C3356:G3356 C3357:G3357 C3358:G3358 C3359:G3359 C3360:G3360 C3361:G3361 C3362:G3362 C3363:G3363 C3364:G3364 C3365:G3365 C3366:G3366 C3367:G3367 C3368:G3368 C3369:G3369 C3370:G3370 C3371:G3371 C3372:G3372 C3373:G3373 C3374:G3374 C3375:G3375 C3376:G3376 C3377:G3377 C3378:G3378 C3379:G3379 C3380:G3380 C3381:G3381 C3382:G3382 C3383:G3383 C3384:G3384 C3385:G3385 C3386:G3386 C3387:G3387 C3388:G3388 C3389:G3389 C3390:G3390 C3391:G3391 C3392:G3392 C3393:G3393 C3394:G3394 C3395:G3395 C3396:G3396 C3397:G3397 C3398:G3398 C3399:G3399 C3400:G3400 C3401:G3401 C3402:G3402 C3403:G3403 C3404:G3404 C3405:G3405 C3406:G3406 C3407:G3407 C3408:G3408 C3409:G3409 C3410:G3410 C3411:G3411 C3412:G3412 C3413:G3413 C3414:G3414 C3415:G3415 C3416:G3416 C3417:G3417 C3418:G3418 C3419:G3419 C3420:G3420 C3421:G3421 C3422:G3422 C3423:G3423 C3424:G3424 C3425:G3425 C3426:G3426 C3427:G3427 C3428:G3428 C3429:G3429 C3430:G3430 C3431:G3431 C3432:G3432 C3433:G3433 C3434:G3434 C3435:G3435 C3436:G3436 C3437:G3437 C3438:G3438 C3439:G3439 C3440:G3440 C3441:G3441 C3442:G3442 C3443:G3443 C3444:G3444 C3445:G3445 C3446:G3446 C3447:G3447 C3448:G3448 C3449:G3449 C3450:G3450 C3451:G3451 C3452:G3452 C3453:G3453 C3454:G3454 C3455:G3455 C3456:G3456 C3457:G3457 C3458:G3458 C3459:G3459 C3460:G3460 C3461:G3461 C3462:G3462 C3463:G3463 C3464:G3464 C3465:G3465 C3466:G3466 C3467:G3467 C3468:G3468 C3469:G3469 C3470:G3470 C3471:G3471 C3472:G3472 C3473:G3473 C3474:G3474 C3475:G3475 C3476:G3476 C3477:G3477 C3478:G3478 C3479:G3479 C3480:G3480 C3481:G3481 C3482:G3482 C3483:G3483 C3484:G3484 C3485:G3485 C3486:G3486 C3487:G3487 C3488:G3488 C3489:G3489 C3490:G3490 C3491:G3491 C3492:G3492 C3493:G3493 C3494:G3494 C3495:G3495 C3496:G3496 C3497:G3497 C3498:G3498 C3499:G3499 C3500:G3500 C3501:G3501 C3502:G3502 C3503:G3503 C3504:G3504 C3505:G3505 C3506:G3506 C3507:G3507 C3508:G3508 C3509:G3509 C3510:G3510 C3511:G3511 C3512:G3512 C3513:G3513 C3514:G3514 C3515:G3515 C3516:G3516 C3517:G3517 C3518:G3518 C3519:G3519 C3520:G3520 C3521:G3521 C3522:G3522 C3523:G3523 C3524:G3524 C3525:G3525 C3526:G3526 C3527:G3527 C3528:G3528 C3529:G3529 C3530:G3530 C3531:G3531 C3532:G3532 C3533:G3533 C3534:G3534 C3535:G3535 C3536:G3536 C3537:G3537 C3538:G3538 C3539:G3539 C3540:G3540 C3541:G3541 C3542:G3542 C3543:G3543 C3544:G3544 C3545:G3545 C3546:G3546 C3547:G3547 C3548:G3548 C3549:G3549 C3550:G3550 C3551:G3551 C3552:G3552 C3553:G3553 C3554:G3554 C3555:G3555 C3556:G3556 C3557:G3557 C3558:G3558 C3559:G3559 C3560:G3560 C3561:G3561 C3562:G3562 C3563:G3563 C3564:G3564 C3565:G3565 C3566:G3566 C3567:G3567 C3568:G3568 C3569:G3569 C3570:G3570 C3571:G3571 C3572:G3572 C3573:G3573 C3574:G3574 C3575:G3575 C3576:G3576 C3577:G3577 C3578:G3578 C3579:G3579 C3580:G3580 C3581:G3581 C3582:G3582 C3583:G3583 C3584:G3584 C3585:G3585 C3586:G3586 C3587:G3587 C3588:G3588 C3589:G3589 C3590:G3590 C3591:G3591 C3592:G3592 C3593:G3593 C3594:G3594 C3595:G3595 C3596:G3596 C3597:G3597 C3598:G3598 C3599:G3599 C3600:G3600 C3601:G3601 C3602:G3602 C3603:G3603 C3604:G3604 C3605:G3605 C3606:G3606 C3607:G3607 C3608:G3608 C3609:G3609 C3610:G3610 C3611:G3611 C3612:G3612 C3613:G3613 C3614:G3614 C3615:G3615 C3616:G3616 C3617:G3617 C3618:G3618 C3619:G3619 C3620:G3620 C3621:G3621 C3622:G3622 C3623:G3623 C3624:G3624 C3625:G3625 C3626:G3626 C3627:G3627 C3628:G3628 C3629:G3629 C3630:G3630 C3631:G3631 C3632:G3632 C3633:G3633 C3634:G3634 C3635:G3635 C3636:G3636 C3637:G3637 C3638:G3638 C3639:G3639 C3640:G3640 C3641:G3641 C3642:G3642 C3643:G3643 C3644:G3644 C3645:G3645 C3646:G3646 C3647:G3647 C3648:G3648 C3649:G3649 C3650:G3650 C3651:G3651 C3652:G3652 C3653:G3653 C3654:G3654 C3655:G3655 C3656:G3656 C3657:G3657 C3658:G3658 C3659:G3659 C3660:G3660 C3661:G3661 C3662:G3662 C3663:G3663 C3664:G3664 C3665:G3665 C3666:G3666 C3667:G3667 C3668:G3668 C3669:G3669 C3670:G3670 C3671:G3671 C3672:G3672 C3673:G3673 C3674:G3674 C3675:G3675 C3676:G3676 C3677:G3677 C3678:G3678 C3679:G3679 C3680:G3680 C3681:G3681 C3682:G3682 C3683:G3683 C3684:G3684 C3685:G3685 C3686:G3686 C3687:G3687 C3688:G3688 C3689:G3689 C3690:G3690 C3691:G3691 C3692:G3692 C3693:G3693 C3694:G3694 C3695:G3695 C3696:G3696 C3697:G3697 C3698:G3698 C3699:G3699 C3700:G3700 C3701:G3701 C3702:G3702 C3703:G3703 C3704:G3704 C3705:G3705 C3706:G3706 C3707:G3707 C3708:G3708 C3709:G3709 C3710:G3710 C3711:G3711 C3712:G3712 C3713:G3713 C3714:G3714 C3715:G3715 C3716:G3716 C3717:G3717 C3718:G3718 C3719:G3719 C3720:G3720 C3721:G3721 C3722:G3722 C3723:G3723 C3724:G3724 C3725:G3725 C3726:G3726 C3727:G3727 C3728:G3728 C3729:G3729 C3730:G3730 C3731:G3731 C3732:G3732 C3733:G3733 C3734:G3734 C3735:G3735 C3736:G3736 C3737:G3737 C3738:G3738 C3739:G3739 C3740:G3740 C3741:G3741 C3742:G3742 C3743:G3743 C3744:G3744 C3745:G3745 C3746:G3746 C3747:G3747 C3748:G3748 C3749:G3749 C3750:G3750 C3751:G3751 C3752:G3752 C3753:G3753 C3754:G3754 C3755:G3755 C3756:G3756 C3757:G3757 C3758:G3758 C3759:G3759 C3760:G3760 C3761:G3761 C3762:G3762 C3763:G3763 C3764:G3764 C3765:G3765 C3766:G3766 C3767:G3767 C3768:G3768 C3769:G3769 C3770:G3770 C3771:G3771 C3772:G3772 C3773:G3773 C3774:G3774 C3775:G3775 C3776:G3776 C3777:G3777 C3778:G3778 C3779:G3779 C3780:G3780 C3781:G3781 C3782:G3782 C3783:G3783 C3784:G3784 C3785:G3785 C3786:G3786 C3787:G3787 C3788:G3788 C3789:G3789 C3790:G3790 C3791:G3791 C3792:G3792 C3793:G3793 C3794:G3794 C3795:G3795 C3796:G3796 C3797:G3797 C3798:G3798 C3799:G3799 C3800:G3800 C3801:G3801 C3802:G3802 C3803:G3803 C3804:G3804 C3805:G3805 C3806:G3806 C3807:G3807 C3808:G3808 C3809:G3809 C3810:G3810 C3811:G3811 C3812:G3812 C3813:G3813 C3814:G3814 C3815:G3815 C3816:G3816 C3817:G3817 C3818:G3818 C3819:G3819 C3820:G3820 C3821:G3821 C3822:G3822 C3823:G3823 C3824:G3824 C3825:G3825 C3826:G3826 C3827:G3827 C3828:G3828 C3829:G3829 C3830:G3830 C3831:G3831 C3832:G3832 C3833:G3833 C3834:G3834 C3835:G3835 C3836:G3836 C3837:G3837 C3838:G3838 C3839:G3839 C3840:G3840 C3841:G3841 C3842:G3842 C3843:G3843 C3844:G3844 C3845:G3845 C3846:G3846 C3847:G3847 C3848:G3848 C3849:G3849 C3850:G3850 C3851:G3851 C3852:G3852 C3853:G3853 C3854:G3854 C3855:G3855 C3856:G3856 C3857:G3857 C3858:G3858 C3859:G3859 C3860:G3860 C3861:G3861 C3862:G3862 C3863:G3863 C3864:G3864 C3865:G3865 C3866:G3866 C3867:G3867 C3868:G3868 C3869:G3869 C3870:G3870 C3871:G3871 C3872:G3872 C3873:G3873 C3874:G3874 C3875:G3875 C3876:G3876 C3877:G3877 C3878:G3878 C3879:G3879 C3880:G3880 C3881:G3881 C3882:G3882 C3883:G3883 C3884:G3884 C3885:G3885 C3886:G3886 C3887:G3887 C3888:G3888 C3889:G3889 C3890:G3890 C3891:G3891 C3892:G3892 C3893:G3893 C3894:G3894 C3895:G3895 C3896:G3896 C3897:G3897 C3898:G3898 C3899:G3899 C3900:G3900 C3901:G3901 C3902:G3902 C3903:G3903 C3904:G3904 C3905:G3905 C3906:G3906 C3907:G3907 C3908:G3908 C3909:G3909 C3910:G3910 C3911:G3911 C3912:G3912 C3913:G3913 C3914:G3914 C3915:G3915 C3916:G3916 C3917:G3917 C3918:G3918 C3919:G3919 C3920:G3920 C3921:G3921 C3922:G3922 C3923:G3923 C3924:G3924 C3925:G3925 C3926:G3926 C3927:G3927 C3928:G3928 C3929:G3929 C3930:G3930 C3931:G3931 C3932:G3932 C3933:G3933 C3934:G3934 C3935:G3935 C3936:G3936 C3937:G3937 C3938:G3938 C3939:G3939 C3940:G3940 C3941:G3941 C3942:G3942 C3943:G3943 C3944:G3944 C3945:G3945 C3946:G3946 C3947:G3947 C3948:G3948 C3949:G3949 C3950:G3950 C3951:G3951 C3952:G3952 C3953:G3953 C3954:G3954 C3955:G3955 C3956:G3956 C3957:G3957 C3958:G3958 C3959:G3959 C3960:G3960 C3961:G3961 C3962:G3962 C3963:G3963 C3964:G3964 C3965:G3965 C3966:G3966 C3967:G3967 C3968:G3968 C3969:G3969 C3970:G3970 C3971:G3971 C3972:G3972 C3973:G3973 C3974:G3974 C3975:G3975 C3976:G3976 C3977:G3977 C3978:G3978 C3979:G3979 C3980:G3980 C3981:G3981 C3982:G3982 C3983:G3983 C3984:G3984 C3985:G3985 C3986:G3986 C3987:G3987 C3988:G3988 C3989:G3989 C3990:G3990 C3991:G3991 C3992:G3992 C3993:G3993 C3994:G3994 C3995:G3995 C3996:G3996 C3997:G3997 C3998:G3998 C3999:G3999 C4000:G4000 C4001:G4001 C4002:G4002 C4003:G4003 C4004:G4004 C4005:G4005 C4006:G4006 C4007:G4007 C4008:G4008 C4009:G4009 C4010:G4010 C4011:G4011 C4012:G4012 C4013:G4013 C4014:G4014 C4015:G4015 C4016:G4016 C4017:G4017 C4018:G4018 C4019:G4019 C4020:G4020 C4021:G4021 C4022:G4022 C4023:G4023 C4024:G4024 C4025:G4025 C4026:G4026 C4027:G4027 C4028:G4028 C4029:G4029 C4030:G4030 C4031:G4031 C4032:G4032 C4033:G4033 C4034:G4034 C4035:G4035 C4036:G4036 C4037:G4037 C4038:G4038 C4039:G4039 C4040:G4040 C4041:G4041 C4042:G4042 C4043:G4043 C4044:G4044 C4045:G4045 C4046:G4046 C4047:G4047 C4048:G4048 C4049:G4049 C4050:G4050 C4051:G4051 C4052:G4052 C4053:G4053 C4054:G4054 C4055:G4055 C4056:G4056 C4057:G4057 C4058:G4058 C4059:G4059 C4060:G4060 C4061:G4061 C4062:G4062 C4063:G4063 C4064:G4064 C4065:G4065 C4066:G4066 C4067:G4067 C4068:G4068 C4069:G4069 C4070:G4070 C4071:G4071 C4072:G4072 C4073:G4073 C4074:G4074 C4075:G4075 C4076:G4076 C4077:G4077 C4078:G4078 C4079:G4079 C4080:G4080 C4081:G4081 C4082:G4082 C4083:G4083 C4084:G4084 C4085:G4085 C4086:G4086 C4087:G4087 C4088:G4088 C4089:G4089 C4090:G4090 C4091:G4091 C4092:G4092 C4093:G4093 C4094:G4094 C4095:G4095 C4096:G4096 C4097:G4097 C4098:G4098 C4099:G4099 C4100:G4100 C4101:G4101 C4102:G4102 C4103:G4103 C4104:G4104 C4105:G4105 C4106:G4106 C4107:G4107 C4108:G4108 C4109:G4109 C4110:G4110 C4111:G4111 C4112:G4112 C4113:G4113 C4114:G4114 C4115:G4115 C4116:G4116 C4117:G4117 C4118:G4118 C4119:G4119 C4120:G4120 C4121:G4121 C4122:G4122 C4123:G4123 C4124:G4124 C4125:G4125 C4126:G4126 C4127:G4127 C4128:G4128 C4129:G4129 C4130:G4130 C4131:G4131 C4132:G4132 C4133:G4133 C4134:G4134 C4135:G4135 C4136:G4136 C4137:G4137 C4138:G4138 C4139:G4139 C4140:G4140 C4141:G4141 C4142:G4142 C4143:G4143 C4144:G4144 C4145:G4145 C4146:G4146 C4147:G4147 C4148:G4148 C4149:G4149 C4150:G4150 C4151:G4151 C4152:G4152 C4153:G4153 C4154:G4154 C4155:G4155 C4156:G4156 C4157:G4157 C4158:G4158 C4159:G4159 C4160:G4160 C4161:G4161 C4162:G4162 C4163:G4163 C4164:G4164 C4165:G4165 C4166:G4166 C4167:G4167 C4168:G4168 C4169:G4169 C4170:G4170 C4171:G4171 C4172:G4172 C4173:G4173 C4174:G4174 C4175:G4175 C4176:G4176 C4177:G4177 C4178:G4178 C4179:G4179 C4180:G4180 C4181:G4181 C4182:G4182 C4183:G4183 C4184:G4184 C4185:G4185 C4186:G4186 C4187:G4187 C4188:G4188 C4189:G4189 C4190:G4190 C4191:G4191 C4192:G4192 C4193:G4193 C4194:G4194 C4195:G4195 C4196:G4196 C4197:G4197 C4198:G4198 C4199:G4199 C4200:G4200 C4201:G4201 C4202:G4202 C4203:G4203 C4204:G4204 C4205:G4205 C4206:G4206 C4207:G4207 C4208:G4208 C4209:G4209 C4210:G4210 C4211:G4211 C4212:G4212 C4213:G4213 C4214:G4214 C4215:G4215 C4216:G4216 C4217:G4217 C4218:G4218 C4219:G4219 C4220:G4220 C4221:G4221 C4222:G4222 C4223:G4223 C4224:G4224 C4225:G4225 C4226:G4226 C4227:G4227 C4228:G4228 C4229:G4229 C4230:G4230 C4231:G4231 C4232:G4232 C4233:G4233 C4234:G4234 C4235:G4235 C4236:G4236 C4237:G4237 C4238:G4238 C4239:G4239 C4240:G4240 C4241:G4241 C4242:G4242 C4243:G4243 C4244:G4244 C4245:G4245 C4246:G4246 C4247:G4247 C4248:G4248 C4249:G4249 C4250:G4250 C4251:G4251 C4252:G4252 C4253:G4253 C4254:G4254 C4255:G4255 C4256:G4256 C4257:G4257 C4258:G4258 C4259:G4259 C4260:G4260 C4261:G4261 C4262:G4262 C4263:G4263 C4264:G4264 C4265:G4265 C4266:G4266 C4267:G4267 C4268:G4268 C4269:G4269 C4270:G4270 C4271:G4271 C4272:G4272 C4273:G4273 C4274:G4274 C4275:G4275 C4276:G4276 C4277:G4277 C4278:G4278 C4279:G4279 C4280:G4280 C4281:G4281 C4282:G4282 C4283:G4283 C4284:G4284 C4285:G4285 C4286:G4286 C4287:G4287 C4288:G4288 C4289:G4289 C4290:G4290 C4291:G4291 C4292:G4292 C4293:G4293 C4294:G4294 C4295:G4295 C4296:G4296 C4297:G4297 C4298:G4298 C4299:G4299 C4300:G4300 C4301:G4301 C4302:G4302 C4303:G4303 C4304:G4304 C4305:G4305 C4306:G4306 C4307:G4307 C4308:G4308 C4309:G4309 C4310:G4310 C4311:G4311 C4312:G4312 C4313:G4313 C4314:G4314 C4315:G4315 C4316:G4316 C4317:G4317 C4318:G4318 C4319:G4319 C4320:G4320 C4321:G4321 C4322:G4322 C4323:G4323 C4324:G4324 C4325:G4325 C4326:G4326 C4327:G4327 C4328:G4328 C4329:G4329 C4330:G4330 C4331:G4331 C4332:G4332 C4333:G4333 C4334:G4334 C4335:G4335 C4336:G4336 C4337:G4337 C4338:G4338 C4339:G4339 C4340:G4340 C4341:G4341 C4342:G4342 C4343:G4343 C4344:G4344 C4345:G4345 C4346:G4346 C4347:G4347 C4348:G4348 C4349:G4349 C4350:G4350 C4351:G4351 C4352:G4352 C4353:G4353 C4354:G4354 C4355:G4355 C4356:G4356 C4357:G4357 C4358:G4358 C4359:G4359 C4360:G4360 C4361:G4361 C4362:G4362 C4363:G4363 C4364:G4364 C4365:G4365 C4366:G4366 C4367:G4367 C4368:G4368 C4369:G4369 C4370:G4370 C4371:G4371 C4372:G4372 C4373:G4373 C4374:G4374 C4375:G4375 C4376:G4376 C4377:G4377 C4378:G4378 C4379:G4379 C4380:G4380 C4381:G4381 C4382:G4382 C4383:G4383 C4384:G4384 C4385:G4385 C4386:G4386 C4387:G4387 C4388:G4388 C4389:G4389 C4390:G4390 C4391:G4391 C4392:G4392 C4393:G4393 C4394:G4394 C4395:G4395 C4396:G4396 C4397:G4397 C4398:G4398 C4399:G4399 C4400:G4400 C4401:G4401 C4402:G4402 C4403:G4403 C4404:G4404 C4405:G4405 C4406:G4406 C4407:G4407 C4408:G4408 C4409:G4409 C4410:G4410 C4411:G4411 C4412:G4412 C4413:G4413 C4414:G4414 C4415:G4415 C4416:G4416 C4417:G4417 C4418:G4418 C4419:G4419 C4420:G4420 C4421:G4421 C4422:G4422 C4423:G4423 C4424:G4424 C4425:G4425 C4426:G4426 C4427:G4427 C4428:G4428 C4429:G4429 C4430:G4430 C4431:G4431 C4432:G4432 C4433:G4433 C4434:G4434 C4435:G4435 C4436:G4436 C4437:G4437 C4438:G4438 C4439:G4439 C4440:G4440 C4441:G4441 C4442:G4442 C4443:G4443 C4444:G4444 C4445:G4445 C4446:G4446 C4447:G4447 C4448:G4448 C4449:G4449 C4450:G4450 C4451:G4451 C4452:G4452 C4453:G4453 C4454:G4454 C4455:G4455 C4456:G4456 C4457:G4457 C4458:G4458 C4459:G4459 C4460:G4460 C4461:G4461 C4462:G4462 C4463:G4463 C4464:G4464 C4465:G4465 C4466:G4466 C4467:G4467 C4468:G4468 C4469:G4469 C4470:G4470 C4471:G4471 C4472:G4472 C4473:G4473 C4474:G4474 C4475:G4475 C4476:G4476 C4477:G4477 C4478:G4478 C4479:G4479 C4480:G4480 C4481:G4481 C4482:G4482 C4483:G4483 C4484:G4484 C4485:G4485 C4486:G4486 C4487:G4487 C4488:G4488 C4489:G4489 C4490:G4490 C4491:G4491 C4492:G4492 C4493:G4493 C4494:G4494 C4495:G4495 C4496:G4496 C4497:G4497 C4498:G4498 C4499:G4499 C4500:G4500 C4501:G4501 C4502:G4502 C4503:G4503 C4504:G4504 C4505:G4505 C4506:G4506 C4507:G4507 C4508:G4508 C4509:G4509 C4510:G4510 C4511:G4511 C4512:G4512 C4513:G4513 C4514:G4514 C4515:G4515 C4516:G4516 C4517:G4517 C4518:G4518 C4519:G4519 C4520:G4520 C4521:G4521 C4522:G4522 C4523:G4523 C4524:G4524 C4525:G4525 C4526:G4526 C4527:G4527 C4528:G4528 C4529:G4529 C4530:G4530 C4531:G4531 C4532:G4532 C4533:G4533 C4534:G4534 C4535:G4535 C4536:G4536 C4537:G4537 C4538:G4538 C4539:G4539 C4540:G4540 C4541:G4541 C4542:G4542 C4543:G4543 C4544:G4544 C4545:G4545 C4546:G4546 C4547:G4547 C4548:G4548 C4549:G4549 C4550:G4550 C4551:G4551 C4552:G4552 C4553:G4553 C4554:G4554 C4555:G4555 C4556:G4556 C4557:G4557 C4558:G4558 C4559:G4559 C4560:G4560 C4561:G4561 C4562:G4562 C4563:G4563 C4564:G4564 C4565:G4565 C4566:G4566 C4567:G4567 C4568:G4568 C4569:G4569 C4570:G4570 C4571:G4571 C4572:G4572 C4573:G4573 C4574:G4574 C4575:G4575 C4576:G4576 C4577:G4577 C4578:G4578 C4579:G4579 C4580:G4580 C4581:G4581 C4582:G4582 C4583:G4583 C4584:G4584 C4585:G4585 C4586:G4586 C4587:G4587 C4588:G4588 C4589:G4589 C4590:G4590 C4591:G4591 C4592:G4592 C4593:G4593 C4594:G4594 C4595:G4595 C4596:G4596 C4597:G4597 C4598:G4598 C4599:G4599 C4600:G4600 C4601:G4601 C4602:G4602 C4603:G4603 C4604:G4604 C4605:G4605 C4606:G4606 C4607:G4607 C4608:G4608 C4609:G4609 C4610:G4610 C4611:G4611 C4612:G4612 C4613:G4613 C4614:G4614 C4615:G4615 C4616:G4616 C4617:G4617 C4618:G4618 C4619:G4619 C4620:G4620 C4621:G4621 C4622:G4622 C4623:G4623 C4624:G4624 C4625:G4625 C4626:G4626 C4627:G4627 C4628:G4628 C4629:G4629 C4630:G4630 C4631:G4631 C4632:G4632 C4633:G4633 C4634:G4634 C4635:G4635 C4636:G4636 C4637:G4637 C4638:G4638 C4639:G4639 C4640:G4640 C4641:G4641 C4642:G4642 C4643:G4643 C4644:G4644 C4645:G4645 C4646:G4646 C4647:G4647 C4648:G4648 C4649:G4649 C4650:G4650 C4651:G4651 C4652:G4652 C4653:G4653 C4654:G4654 C4655:G4655 C4656:G4656 C4657:G4657 C4658:G4658" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:G1 D2:G2 D3:G3 D4:G4 D5:G5 D6:G6 D7:G7 D8:G8 D9:G9 D10:G10 D11:G11 D12:G12 D13:G13 D14:G14 D15:G15 D16:G16 D17:G17 D18:G18 D19:G19 D20:G20 D21:G21 C22:G22 C23:G23 C24:G24 C25:G25 C26:G26 C27:G27 C28:G28 C29:G29 C30:G30 C31:G31 C32:G32 C33:G33 C34:G34 C35:G35 C36:G36 C37:G37 C38:G38 C39:G39 C40:G40 C41:G41 C42:G42 C43:G43 C44:G44 C45:G45 C46:G46 C47:G47 C48:G48 C49:G49 C50:G50 C51:G51 C52:G52 C53:G53 C54:G54 C55:G55 C56:G56 C57:G57 C58:G58 C59:G59 C60:G60 C61:G61 C62:G62 C63:G63 C64:G64 C65:G65 C66:G66 C67:G67 C68:G68 C69:G69 C70:G70 C71:G71 C72:G72 C73:G73 C74:G74 C75:G75 C76:G76 C77:G77 C78:G78 C79:G79 C80:G80 C81:G81 C82:G82 C83:G83 C84:G84 C85:G85 C86:G86 C87:G87 C88:G88 C89:G89 C90:G90 C91:G91 C92:G92 C93:G93 C94:G94 C95:G95 C96:G96 C97:G97 C98:G98 C99:G99 C100:G100 C101:G101 C102:G102 C103:G103 C104:G104 C105:G105 C106:G106 C107:G107 C108:G108 C109:G109 C110:G110 C111:G111 C112:G112 C113:G113 C114:G114 C115:G115 C116:G116 C117:G117 C118:G118 C119:G119 C120:G120 C121:G121 C122:G122 C123:G123 C124:G124 C125:G125 C126:G126 C127:G127 C128:G128 C129:G129 C130:G130 C131:G131 C132:G132 C133:G133 C134:G134 C135:G135 C136:G136 C137:G137 C138:G138 C139:G139 C140:G140 C141:G141 C142:G142 C143:G143 C144:G144 C145:G145 C146:G146 C147:G147 C148:G148 C149:G149 C150:G150 C151:G151 C152:G152 C153:G153 C154:G154 C155:G155 C156:G156 C157:G157 C158:G158 C159:G159 C160:G160 C161:G161 C162:G162 C163:G163 C164:G164 C165:G165 C166:G166 C167:G167 C168:G168 C169:G169 C170:G170 C171:G171 C172:G172 C173:G173 C174:G174 C175:G175 C176:G176 C177:G177 C178:G178 C179:G179 C180:G180 C181:G181 C182:G182 C183:G183 C184:G184 C185:G185 C186:G186 C187:G187 C188:G188 C189:G189 C190:G190 C191:G191 C192:G192 C193:G193 C194:G194 C195:G195 C196:G196 C197:G197 C198:G198 C199:G199 C200:G200 C201:G201 C202:G202 C203:G203 C204:G204 C205:G205 C206:G206 C207:G207 C208:G208 C209:G209 C210:G210 C211:G211 C212:G212 C213:G213 C214:G214 C215:G215 C216:G216 C217:G217 C218:G218 C219:G219 C220:G220 C221:G221 C222:G222 C223:G223 C224:G224 C225:G225 C226:G226 C227:G227 C228:G228 C229:G229 C230:G230 C231:G231 C232:G232 C233:G233 C234:G234 C235:G235 C236:G236 C237:G237 C238:G238 C239:G239 C240:G240 C241:G241 C242:G242 C243:G243 C244:G244 C245:G245 C246:G246 C247:G247 C248:G248 C249:G249 C250:G250 C251:G251 C252:G252 C253:G253 C254:G254 C255:G255 C256:G256 C257:G257 C258:G258 C259:G259 C260:G260 C261:G261 C262:G262 C263:G263 C264:G264 C265:G265 C266:G266 C267:G267 C268:G268 C269:G269 C270:G270 C271:G271 C272:G272 C273:G273 C274:G274 C275:G275 C276:G276 C277:G277 C278:G278 C279:G279 C280:G280 C281:G281 C282:G282 C283:G283 C284:G284 C285:G285 C286:G286 C287:G287 C288:G288 C289:G289 C290:G290 C291:G291 C292:G292 C293:G293 C294:G294 C295:G295 C296:G296 C297:G297 C298:G298 C299:G299 C300:G300 C301:G301 C302:G302 C303:G303 C304:G304 C305:G305 C306:G306 C307:G307 C308:G308 C309:G309 C310:G310 C311:G311 C312:G312 C313:G313 C314:G314 C315:G315 C316:G316 C317:G317 C318:G318 C319:G319 C320:G320 C321:G321 C322:G322 C323:G323 C324:G324 C325:G325 C326:G326 C327:G327 C328:G328 C329:G329 C330:G330 C331:G331 C332:G332 C333:G333 C334:G334 C335:G335 C336:G336 C337:G337 C338:G338 C339:G339 C340:G340 C341:G341 C342:G342 C343:G343 C344:G344 C345:G345 C346:G346 C347:G347 C348:G348 C349:G349 C350:G350 C351:G351 C352:G352 C353:G353 C354:G354 C355:G355 C356:G356 C357:G357 C358:G358 C359:G359 C360:G360 C361:G361 C362:G362 C363:G363 C364:G364 C365:G365 C366:G366 C367:G367 C368:G368 C369:G369 C370:G370 C371:G371 C372:G372 C373:G373 C374:G374 C375:G375 C376:G376 C377:G377 C378:G378 C379:G379 C380:G380 C381:G381 C382:G382 C383:G383 C384:G384 C385:G385 C386:G386 C387:G387 C388:G388 C389:G389 C390:G390 C391:G391 C392:G392 C393:G393 C394:G394 C395:G395 C396:G396 C397:G397 C398:G398 C399:G399 C400:G400 C401:G401 C402:G402 C403:G403 C404:G404 C405:G405 C406:G406 C407:G407 C408:G408 C409:G409 C410:G410 C411:G411 C412:G412 C413:G413 C414:G414 C415:G415 C416:G416 C417:G417 C418:G418 C419:G419 C420:G420 C421:G421 C422:G422 C423:G423 C424:G424 C425:G425 C426:G426 C427:G427 C428:G428 C429:G429 C430:G430 C431:G431 C432:G432 C433:G433 C434:G434 C435:G435 C436:G436 C437:G437 C438:G438 C439:G439 C440:G440 C441:G441 C442:G442 C443:G443 C444:G444 C445:G445 C446:G446 C447:G447 C448:G448 C449:G449 C450:G450 C451:G451 C452:G452 C453:G453 C454:G454 C455:G455 C456:G456 C457:G457 C458:G458 C459:G459 C460:G460 C461:G461 C462:G462 C463:G463 C464:G464 C465:G465 C466:G466 C467:G467 C468:G468 C469:G469 C470:G470 C471:G471 C472:G472 C473:G473 C474:G474 C475:G475 C476:G476 C477:G477 C478:G478 C479:G479 C480:G480 C481:G481 C482:G482 C483:G483 C484:G484 C485:G485 C486:G486 C487:G487 C488:G488 C489:G489 C490:G490 C491:G491 C492:G492 C493:G493 C494:G494 C495:G495 C496:G496 C497:G497 C498:G498 C499:G499 C500:G500 C501:G501 C502:G502 C503:G503 C504:G504 C505:G505 C506:G506 C507:G507 C508:G508 C509:G509 C510:G510 C511:G511 C512:G512 C513:G513 C514:G514 C515:G515 C516:G516 C517:G517 C518:G518 C519:G519 C520:G520 C521:G521 C522:G522 C523:G523 C524:G524 C525:G525 C526:G526 C527:G527 C528:G528 C529:G529 C530:G530 C531:G531 C532:G532 C533:G533 C534:G534 C535:G535 C536:G536 C537:G537 C538:G538 C539:G539 C540:G540 C541:G541 C542:G542 C543:G543 C544:G544 C545:G545 C546:G546 C547:G547 C548:G548 C549:G549 C550:G550 C551:G551 C552:G552 C553:G553 C554:G554 C555:G555 C556:G556 C557:G557 C558:G558 C559:G559 C560:G560 C561:G561 C562:G562 C563:G563 C564:G564 C565:G565 C566:G566 C567:G567 C568:G568 C569:G569 C570:G570 C571:G571 C572:G572 C573:G573 C574:G574 C575:G575 C576:G576 C577:G577 C578:G578 C579:G579 C580:G580 C581:G581 C582:G582 C583:G583 C584:G584 C585:G585 C586:G586 C587:G587 C588:G588 C589:G589 C590:G590 C591:G591 C592:G592 C593:G593 C594:G594 C595:G595 C596:G596 C597:G597 C598:G598 C599:G599 C600:G600 C601:G601 C602:G602 C603:G603 C604:G604 C605:G605 C606:G606 C607:G607 C608:G608 C609:G609 C610:G610 C611:G611 C612:G612 C613:G613 C614:G614 C615:G615 C616:G616 C617:G617 C618:G618 C619:G619 C620:G620 C621:G621 C622:G622 C623:G623 C624:G624 C625:G625 C626:G626 C627:G627 C628:G628 C629:G629 C630:G630 C631:G631 C632:G632 C633:G633 C634:G634 C635:G635 C636:G636 C637:G637 C638:G638 C639:G639 C640:G640 C641:G641 C642:G642 C643:G643 C644:G644 C645:G645 C646:G646 C647:G647 C648:G648 C649:G649 C650:G650 C651:G651 C652:G652 C653:G653 C654:G654 C655:G655 C656:G656 C657:G657 C658:G658 C659:G659 C660:G660 C661:G661 C662:G662 C663:G663 C664:G664 C665:G665 C666:G666 C667:G667 C668:G668 C669:G669 C670:G670 C671:G671 C672:G672 C673:G673 C674:G674 C675:G675 C676:G676 C677:G677 C678:G678 C679:G679 C680:G680 C681:G681 C682:G682 C683:G683 C684:G684 C685:G685 C686:G686 C687:G687 C688:G688 C689:G689 C690:G690 C691:G691 C692:G692 C693:G693 C694:G694 C695:G695 C696:G696 C697:G697 C698:G698 C699:G699 C700:G700 C701:G701 C702:G702 C703:G703 C704:G704 C705:G705 C706:G706 C707:G707 C708:G708 C709:G709 C710:G710 C711:G711 C712:G712 C713:G713 C714:G714 C715:G715 C716:G716 C717:G717 C718:G718 C719:G719 C720:G720 C721:G721 C722:G722 C723:G723 C724:G724 C725:G725 C726:G726 C727:G727 C728:G728 C729:G729 C730:G730 C731:G731 C732:G732 C733:G733 C734:G734 C735:G735 C736:G736 C737:G737 C738:G738 C739:G739 C740:G740 C741:G741 C742:G742 C743:G743 C744:G744 C745:G745 C746:G746 C747:G747 C748:G748 C749:G749 C750:G750 C751:G751 C752:G752 C753:G753 C754:G754 C755:G755 C756:G756 C757:G757 C758:G758 C759:G759 C760:G760 C761:G761 C762:G762 C763:G763 C764:G764 C765:G765 C766:G766 C767:G767 C768:G768 C769:G769 C770:G770 C771:G771 C772:G772 C773:G773 C774:G774 C775:G775 C776:G776 C777:G777 C778:G778 C779:G779 C780:G780 C781:G781 C782:G782 C783:G783 C784:G784 C785:G785 C786:G786 C787:G787 C788:G788 C789:G789 C790:G790 C791:G791 C792:G792 C793:G793 C794:G794 C795:G795 C796:G796 C797:G797 C798:G798 C799:G799 C800:G800 C801:G801 C802:G802 C803:G803 C804:G804 C805:G805 C806:G806 C807:G807 C808:G808 C809:G809 C810:G810 C811:G811 C812:G812 C813:G813 C814:G814 C815:G815 C816:G816 C817:G817 C818:G818 C819:G819 C820:G820 C821:G821 C822:G822 C823:G823 C824:G824 C825:G825 C826:G826 C827:G827 C828:G828 C829:G829 C830:G830 C831:G831 C832:G832 C833:G833 C834:G834 C835:G835 C836:G836 C837:G837 C838:G838 C839:G839 C840:G840 C841:G841 C842:G842 C843:G843 C844:G844 C845:G845 C846:G846 C847:G847 C848:G848 C849:G849 C850:G850 C851:G851 C852:G852 C853:G853 C854:G854 C855:G855 C856:G856 C857:G857 C858:G858 C859:G859 C860:G860 C861:G861 C862:G862 C863:G863 C864:G864 C865:G865 C866:G866 C867:G867 C868:G868 C869:G869 C870:G870 C871:G871 C872:G872 C873:G873 C874:G874 C875:G875 C876:G876 C877:G877 C878:G878 C879:G879 C880:G880 C881:G881 C882:G882 C883:G883 C884:G884 C885:G885 C886:G886 C887:G887 C888:G888 C889:G889 C890:G890 C891:G891 C892:G892 C893:G893 C894:G894 C895:G895 C896:G896 C897:G897 C898:G898 C899:G899 C900:G900 C901:G901 C902:G902 C903:G903 C904:G904 C905:G905 C906:G906 C907:G907 C908:G908 C909:G909 C910:G910 C911:G911 C912:G912 C913:G913 C914:G914 C915:G915 C916:G916 C917:G917 C918:G918 C919:G919 C920:G920 C921:G921 C922:G922 C923:G923 C924:G924 C925:G925 C926:G926 C927:G927 C928:G928 C929:G929 C930:G930 C931:G931 C932:G932 C933:G933 C934:G934 C935:G935 C936:G936 C937:G937 C938:G938 C939:G939 C940:G940 C941:G941 C942:G942 C943:G943 C944:G944 C945:G945 C946:G946 C947:G947 C948:G948 C949:G949 C950:G950 C951:G951 C952:G952 C953:G953 C954:G954 C955:G955 C956:G956 C957:G957 C958:G958 C959:G959 C960:G960 C961:G961 C962:G962 C963:G963 C964:G964 C965:G965 C966:G966 C967:G967 C968:G968 C969:G969 C970:G970 C971:G971 C972:G972 C973:G973 C974:G974 C975:G975 C976:G976 C977:G977 C978:G978 C979:G979 C980:G980 C981:G981 C982:G982 C983:G983 C984:G984 C985:G985 C986:G986 C987:G987 C988:G988 C989:G989 C990:G990 C991:G991 C992:G992 C993:G993 C994:G994 C995:G995 C996:G996 C997:G997 C998:G998 C999:G999 C1000:G1000 C1001:G1001 C1002:G1002 C1003:G1003 C1004:G1004 C1005:G1005 C1006:G1006 C1007:G1007 C1008:G1008 C1009:G1009 C1010:G1010 C1011:G1011 C1012:G1012 C1013:G1013 C1014:G1014 C1015:G1015 C1016:G1016 C1017:G1017 C1018:G1018 C1019:G1019 C1020:G1020 C1021:G1021 C1022:G1022 C1023:G1023 C1024:G1024 C1025:G1025 C1026:G1026 C1027:G1027 C1028:G1028 C1029:G1029 C1030:G1030 C1031:G1031 C1032:G1032 C1033:G1033 C1034:G1034 C1035:G1035 C1036:G1036 C1037:G1037 C1038:G1038 C1039:G1039 C1040:G1040 C1041:G1041 C1042:G1042 C1043:G1043 C1044:G1044 C1045:G1045 C1046:G1046 C1047:G1047 C1048:G1048 C1049:G1049 C1050:G1050 C1051:G1051 C1052:G1052 C1053:G1053 C1054:G1054 C1055:G1055 C1056:G1056 C1057:G1057 C1058:G1058 C1059:G1059 C1060:G1060 C1061:G1061 C1062:G1062 C1063:G1063 C1064:G1064 C1065:G1065 C1066:G1066 C1067:G1067 C1068:G1068 C1069:G1069 C1070:G1070 C1071:G1071 C1072:G1072 C1073:G1073 C1074:G1074 C1075:G1075 C1076:G1076 C1077:G1077 C1078:G1078 C1079:G1079 C1080:G1080 C1081:G1081 C1082:G1082 C1083:G1083 C1084:G1084 C1085:G1085 C1086:G1086 C1087:G1087 C1088:G1088 C1089:G1089 C1090:G1090 C1091:G1091 C1092:G1092 C1093:G1093 C1094:G1094 C1095:G1095 C1096:G1096 C1097:G1097 C1098:G1098 C1099:G1099 C1100:G1100 C1101:G1101 C1102:G1102 C1103:G1103 C1104:G1104 C1105:G1105 C1106:G1106 C1107:G1107 C1108:G1108 C1109:G1109 C1110:G1110 C1111:G1111 C1112:G1112 C1113:G1113 C1114:G1114 C1115:G1115 C1116:G1116 C1117:G1117 C1118:G1118 C1119:G1119 C1120:G1120 C1121:G1121 C1122:G1122 C1123:G1123 C1124:G1124 C1125:G1125 C1126:G1126 C1127:G1127 C1128:G1128 C1129:G1129 C1130:G1130 C1131:G1131 C1132:G1132 C1133:G1133 C1134:G1134 C1135:G1135 C1136:G1136 C1137:G1137 C1138:G1138 C1139:G1139 C1140:G1140 C1141:G1141 C1142:G1142 C1143:G1143 C1144:G1144 C1145:G1145 C1146:G1146 C1147:G1147 C1148:G1148 C1149:G1149 C1150:G1150 C1151:G1151 C1152:G1152 C1153:G1153 C1154:G1154 C1155:G1155 C1156:G1156 C1157:G1157 C1158:G1158 C1159:G1159 C1160:G1160 C1161:G1161 C1162:G1162 C1163:G1163 C1164:G1164 C1165:G1165 C1166:G1166 C1167:G1167 C1168:G1168 C1169:G1169 C1170:G1170 C1171:G1171 C1172:G1172 C1173:G1173 C1174:G1174 C1175:G1175 C1176:G1176 C1177:G1177 C1178:G1178 C1179:G1179 C1180:G1180 C1181:G1181 C1182:G1182 C1183:G1183 C1184:G1184 C1185:G1185 C1186:G1186 C1187:G1187 C1188:G1188 C1189:G1189 C1190:G1190 C1191:G1191 C1192:G1192 C1193:G1193 C1194:G1194 C1195:G1195 C1196:G1196 C1197:G1197 C1198:G1198 C1199:G1199 C1200:G1200 C1201:G1201 C1202:G1202 C1203:G1203 C1204:G1204 C1205:G1205 C1206:G1206 C1207:G1207 C1208:G1208 C1209:G1209 C1210:G1210 C1211:G1211 C1212:G1212 C1213:G1213 C1214:G1214 C1215:G1215 C1216:G1216 C1217:G1217 C1218:G1218 C1219:G1219 C1220:G1220 C1221:G1221 C1222:G1222 C1223:G1223 C1224:G1224 C1225:G1225 C1226:G1226 C1227:G1227 C1228:G1228 C1229:G1229 C1230:G1230 C1231:G1231 C1232:G1232 C1233:G1233 C1234:G1234 C1235:G1235 C1236:G1236 C1237:G1237 C1238:G1238 C1239:G1239 C1240:G1240 C1241:G1241 C1242:G1242 C1243:G1243 C1244:G1244 C1245:G1245 C1246:G1246 C1247:G1247 C1248:G1248 C1249:G1249 C1250:G1250 C1251:G1251 C1252:G1252 C1253:G1253 C1254:G1254 C1255:G1255 C1256:G1256 C1257:G1257 C1258:G1258 C1259:G1259 C1260:G1260 C1261:G1261 C1262:G1262 C1263:G1263 C1264:G1264 C1265:G1265 C1266:G1266 C1267:G1267 C1268:G1268 C1269:G1269 C1270:G1270 C1271:G1271 C1272:G1272 C1273:G1273 C1274:G1274 C1275:G1275 C1276:G1276 C1277:G1277 C1278:G1278 C1279:G1279 C1280:G1280 C1281:G1281 C1282:G1282 C1283:G1283 C1284:G1284 C1285:G1285 C1286:G1286 C1287:G1287 C1288:G1288 C1289:G1289 C1290:G1290 C1291:G1291 C1292:G1292 C1293:G1293 C1294:G1294 C1295:G1295 C1296:G1296 C1297:G1297 C1298:G1298 C1299:G1299 C1300:G1300 C1301:G1301 C1302:G1302 C1303:G1303 C1304:G1304 C1305:G1305 C1306:G1306 C1307:G1307 C1308:G1308 C1309:G1309 C1310:G1310 C1311:G1311 C1312:G1312 C1313:G1313 C1314:G1314 C1315:G1315 C1316:G1316 C1317:G1317 C1318:G1318 C1319:G1319 C1320:G1320 C1321:G1321 C1322:G1322 C1323:G1323 C1324:G1324 C1325:G1325 C1326:G1326 C1327:G1327 C1328:G1328 C1329:G1329 C1330:G1330 C1331:G1331 C1332:G1332 C1333:G1333 C1334:G1334 C1335:G1335 C1336:G1336 C1337:G1337 C1338:G1338 C1339:G1339 C1340:G1340 C1341:G1341 C1342:G1342 C1343:G1343 C1344:G1344 C1345:G1345 C1346:G1346 C1347:G1347 C1348:G1348 C1349:G1349 C1350:G1350 C1351:G1351 C1352:G1352 C1353:G1353 C1354:G1354 C1355:G1355 C1356:G1356 C1357:G1357 C1358:G1358 C1359:G1359 C1360:G1360 C1361:G1361 C1362:G1362 C1363:G1363 C1364:G1364 C1365:G1365 C1366:G1366 C1367:G1367 C1368:G1368 C1369:G1369 C1370:G1370 C1371:G1371 C1372:G1372 C1373:G1373 C1374:G1374 C1375:G1375 C1376:G1376 C1377:G1377 C1378:G1378 C1379:G1379 C1380:G1380 C1381:G1381 C1382:G1382 C1383:G1383 C1384:G1384 C1385:G1385 C1386:G1386 C1387:G1387 C1388:G1388 C1389:G1389 C1390:G1390 C1391:G1391 C1392:G1392 C1393:G1393 C1394:G1394 C1395:G1395 C1396:G1396 C1397:G1397 C1398:G1398 C1399:G1399 C1400:G1400 C1401:G1401 C1402:G1402 C1403:G1403 C1404:G1404 C1405:G1405 C1406:G1406 C1407:G1407 C1408:G1408 C1409:G1409 C1410:G1410 C1411:G1411 C1412:G1412 C1413:G1413 C1414:G1414 C1415:G1415 C1416:G1416 C1417:G1417 C1418:G1418 C1419:G1419 C1420:G1420 C1421:G1421 C1422:G1422 C1423:G1423 C1424:G1424 C1425:G1425 C1426:G1426 C1427:G1427 C1428:G1428 C1429:G1429 C1430:G1430 C1431:G1431 C1432:G1432 C1433:G1433 C1434:G1434 C1435:G1435 C1436:G1436 C1437:G1437 C1438:G1438 C1439:G1439 C1440:G1440 C1441:G1441 C1442:G1442 C1443:G1443 C1444:G1444 C1445:G1445 C1446:G1446 C1447:G1447 C1448:G1448 C1449:G1449 C1450:G1450 C1451:G1451 C1452:G1452 C1453:G1453 C1454:G1454 C1455:G1455 C1456:G1456 C1457:G1457 C1458:G1458 C1459:G1459 C1460:G1460 C1461:G1461 C1462:G1462 C1463:G1463 C1464:G1464 C1465:G1465 C1466:G1466 C1467:G1467 C1468:G1468 C1469:G1469 C1470:G1470 C1471:G1471 C1472:G1472 C1473:G1473 C1474:G1474 C1475:G1475 C1476:G1476 C1477:G1477 C1478:G1478 C1479:G1479 C1480:G1480 C1481:G1481 C1482:G1482 C1483:G1483 C1484:G1484 C1485:G1485 C1486:G1486 C1487:G1487 C1488:G1488 C1489:G1489 C1490:G1490 C1491:G1491 C1492:G1492 C1493:G1493 C1494:G1494 C1495:G1495 C1496:G1496 C1497:G1497 C1498:G1498 C1499:G1499 C1500:G1500 C1501:G1501 C1502:G1502 C1503:G1503 C1504:G1504 C1505:G1505 C1506:G1506 C1507:G1507 C1508:G1508 C1509:G1509 C1510:G1510 C1511:G1511 C1512:G1512 C1513:G1513 C1514:G1514 C1515:G1515 C1516:G1516 C1517:G1517 C1518:G1518 C1519:G1519 C1520:G1520 C1521:G1521 C1522:G1522 C1523:G1523 C1524:G1524 C1525:G1525 C1526:G1526 C1527:G1527 C1528:G1528 C1529:G1529 C1530:G1530 C1531:G1531 C1532:G1532 C1533:G1533 C1534:G1534 C1535:G1535 C1536:G1536 C1537:G1537 C1538:G1538 C1539:G1539 C1540:G1540 C1541:G1541 C1542:G1542 C1543:G1543 C1544:G1544 C1545:G1545 C1546:G1546 C1547:G1547 C1548:G1548 C1549:G1549 C1550:G1550 C1551:G1551 C1552:G1552 C1553:G1553 C1554:G1554 C1555:G1555 C1556:G1556 C1557:G1557 C1558:G1558 C1559:G1559 C1560:G1560 C1561:G1561 C1562:G1562 C1563:G1563 C1564:G1564 C1565:G1565 C1566:G1566 C1567:G1567 C1568:G1568 C1569:G1569 C1570:G1570 C1571:G1571 C1572:G1572 C1573:G1573 C1574:G1574 C1575:G1575 C1576:G1576 C1577:G1577 C1578:G1578 C1579:G1579 C1580:G1580 C1581:G1581 C1582:G1582 C1583:G1583 C1584:G1584 C1585:G1585 C1586:G1586 C1587:G1587 C1588:G1588 C1589:G1589 C1590:G1590 C1591:G1591 C1592:G1592 C1593:G1593 C1594:G1594 C1595:G1595 C1596:G1596 C1597:G1597 C1598:G1598 C1599:G1599 C1600:G1600 C1601:G1601 C1602:G1602 C1603:G1603 C1604:G1604 C1605:G1605 C1606:G1606 C1607:G1607 C1608:G1608 C1609:G1609 C1610:G1610 C1611:G1611 C1612:G1612 C1613:G1613 C1614:G1614 C1615:G1615 C1616:G1616 C1617:G1617 C1618:G1618 C1619:G1619 C1620:G1620 C1621:G1621 C1622:G1622 C1623:G1623 C1624:G1624 C1625:G1625 C1626:G1626 C1627:G1627 C1628:G1628 C1629:G1629 C1630:G1630 C1631:G1631 C1632:G1632 C1633:G1633 C1634:G1634 C1635:G1635 C1636:G1636 C1637:G1637 C1638:G1638 C1639:G1639 C1640:G1640 C1641:G1641 C1642:G1642 C1643:G1643 C1644:G1644 C1645:G1645 C1646:G1646 C1647:G1647 C1648:G1648 C1649:G1649 C1650:G1650 C1651:G1651 C1652:G1652 C1653:G1653 C1654:G1654 C1655:G1655 C1656:G1656 C1657:G1657 C1658:G1658 C1659:G1659 C1660:G1660 C1661:G1661 C1662:G1662 C1663:G1663 C1664:G1664 C1665:G1665 C1666:G1666 C1667:G1667 C1668:G1668 C1669:G1669 C1670:G1670 C1671:G1671 C1672:G1672 C1673:G1673 C1674:G1674 C1675:G1675 C1676:G1676 C1677:G1677 C1678:G1678 C1679:G1679 C1680:G1680 C1681:G1681 C1682:G1682 C1683:G1683 C1684:G1684 C1685:G1685 C1686:G1686 C1687:G1687 C1688:G1688 C1689:G1689 C1690:G1690 C1691:G1691 C1692:G1692 C1693:G1693 C1694:G1694 C1695:G1695 C1696:G1696 C1697:G1697 C1698:G1698 C1699:G1699 C1700:G1700 C1701:G1701 C1702:G1702 C1703:G1703 C1704:G1704 C1705:G1705 C1706:G1706 C1707:G1707 C1708:G1708 C1709:G1709 C1710:G1710 C1711:G1711 C1712:G1712 C1713:G1713 C1714:G1714 C1715:G1715 C1716:G1716 C1717:G1717 C1718:G1718 C1719:G1719 C1720:G1720 C1721:G1721 C1722:G1722 C1723:G1723 C1724:G1724 C1725:G1725 C1726:G1726 C1727:G1727 C1728:G1728 C1729:G1729 C1730:G1730 C1731:G1731 C1732:G1732 C1733:G1733 C1734:G1734 C1735:G1735 C1736:G1736 C1737:G1737 C1738:G1738 C1739:G1739 C1740:G1740 C1741:G1741 C1742:G1742 C1743:G1743 C1744:G1744 C1745:G1745 C1746:G1746 C1747:G1747 C1748:G1748 C1749:G1749 C1750:G1750 C1751:G1751 C1752:G1752 C1753:G1753 C1754:G1754 C1755:G1755 C1756:G1756 C1757:G1757 C1758:G1758 C1759:G1759 C1760:G1760 C1761:G1761 C1762:G1762 C1763:G1763 C1764:G1764 C1765:G1765 C1766:G1766 C1767:G1767 C1768:G1768 C1769:G1769 C1770:G1770 C1771:G1771 C1772:G1772 C1773:G1773 C1774:G1774 C1775:G1775 C1776:G1776 C1777:G1777 C1778:G1778 C1779:G1779 C1780:G1780 C1781:G1781 C1782:G1782 C1783:G1783 C1784:G1784 C1785:G1785 C1786:G1786 C1787:G1787 C1788:G1788 C1789:G1789 C1790:G1790 C1791:G1791 C1792:G1792 C1793:G1793 C1794:G1794 C1795:G1795 C1796:G1796 C1797:G1797 C1798:G1798 C1799:G1799 C1800:G1800 C1801:G1801 C1802:G1802 C1803:G1803 C1804:G1804 C1805:G1805 C1806:G1806 C1807:G1807 C1808:G1808 C1809:G1809 C1810:G1810 C1811:G1811 C1812:G1812 C1813:G1813 C1814:G1814 C1815:G1815 C1816:G1816 C1817:G1817 C1818:G1818 C1819:G1819 C1820:G1820 C1821:G1821 C1822:G1822 C1823:G1823 C1824:G1824 C1825:G1825 C1826:G1826 C1827:G1827 C1828:G1828 C1829:G1829 C1830:G1830 C1831:G1831 C1832:G1832 C1833:G1833 C1834:G1834 C1835:G1835 C1836:G1836 C1837:G1837 C1838:G1838 C1839:G1839 C1840:G1840 C1841:G1841 C1842:G1842 C1843:G1843 C1844:G1844 C1845:G1845 C1846:G1846 C1847:G1847 C1848:G1848 C1849:G1849 C1850:G1850 C1851:G1851 C1852:G1852 C1853:G1853 C1854:G1854 C1855:G1855 C1856:G1856 C1857:G1857 C1858:G1858 C1859:G1859 C1860:G1860 C1861:G1861 C1862:G1862 C1863:G1863 C1864:G1864 C1865:G1865 C1866:G1866 C1867:G1867 C1868:G1868 C1869:G1869 C1870:G1870 C1871:G1871 C1872:G1872 C1873:G1873 C1874:G1874 C1875:G1875 C1876:G1876 C1877:G1877 C1878:G1878 C1879:G1879 C1880:G1880 C1881:G1881 C1882:G1882 C1883:G1883 C1884:G1884 C1885:G1885 C1886:G1886 C1887:G1887 C1888:G1888 C1889:G1889 C1890:G1890 C1891:G1891 C1892:G1892 C1893:G1893 C1894:G1894 C1895:G1895 C1896:G1896 C1897:G1897 C1898:G1898 C1899:G1899 C1900:G1900 C1901:G1901 C1902:G1902 C1903:G1903 C1904:G1904 C1905:G1905 C1906:G1906 C1907:G1907 C1908:G1908 C1909:G1909 C1910:G1910 C1911:G1911 C1912:G1912 C1913:G1913 C1914:G1914 C1915:G1915 C1916:G1916 C1917:G1917 C1918:G1918 C1919:G1919 C1920:G1920 C1921:G1921 C1922:G1922 C1923:G1923 C1924:G1924 C1925:G1925 C1926:G1926 C1927:G1927 C1928:G1928 C1929:G1929 C1930:G1930 C1931:G1931 C1932:G1932 C1933:G1933 C1934:G1934 C1935:G1935 C1936:G1936 C1937:G1937 C1938:G1938 C1939:G1939 C1940:G1940 C1941:G1941 C1942:G1942 C1943:G1943 C1944:G1944 C1945:G1945 C1946:G1946 C1947:G1947 C1948:G1948 C1949:G1949 C1950:G1950 C1951:G1951 C1952:G1952 C1953:G1953 C1954:G1954 C1955:G1955 C1956:G1956 C1957:G1957 C1958:G1958 C1959:G1959 C1960:G1960 C1961:G1961 C1962:G1962 C1963:G1963 C1964:G1964 C1965:G1965 C1966:G1966 C1967:G1967 C1968:G1968 C1969:G1969 C1970:G1970 C1971:G1971 C1972:G1972 C1973:G1973 C1974:G1974 C1975:G1975 C1976:G1976 C1977:G1977 C1978:G1978 C1979:G1979 C1980:G1980 C1981:G1981 C1982:G1982 C1983:G1983 C1984:G1984 C1985:G1985 C1986:G1986 C1987:G1987 C1988:G1988 C1989:G1989 C1990:G1990 C1991:G1991 C1992:G1992 C1993:G1993 C1994:G1994 C1995:G1995 C1996:G1996 C1997:G1997 C1998:G1998 C1999:G1999 C2000:G2000 C2001:G2001 C2002:G2002 C2003:G2003 C2004:G2004 C2005:G2005 C2006:G2006 C2007:G2007 C2008:G2008 C2009:G2009 C2010:G2010 C2011:G2011 C2012:G2012 C2013:G2013 C2014:G2014 C2015:G2015 C2016:G2016 C2017:G2017 C2018:G2018 C2019:G2019 C2020:G2020 C2021:G2021 C2022:G2022 C2023:G2023 C2024:G2024 C2025:G2025 C2026:G2026 C2027:G2027 C2028:G2028 C2029:G2029 C2030:G2030 C2031:G2031 C2032:G2032 C2033:G2033 C2034:G2034 C2035:G2035 C2036:G2036 C2037:G2037 C2038:G2038 C2039:G2039 C2040:G2040 C2041:G2041 C2042:G2042 C2043:G2043 C2044:G2044 C2045:G2045 C2046:G2046 C2047:G2047 C2048:G2048 C2049:G2049 C2050:G2050 C2051:G2051 C2052:G2052 C2053:G2053 C2054:G2054 C2055:G2055 C2056:G2056 C2057:G2057 C2058:G2058 C2059:G2059 C2060:G2060 C2061:G2061 C2062:G2062 C2063:G2063 C2064:G2064 C2065:G2065 C2066:G2066 C2067:G2067 C2068:G2068 C2069:G2069 C2070:G2070 C2071:G2071 C2072:G2072 C2073:G2073 C2074:G2074 C2075:G2075 C2076:G2076 C2077:G2077 C2078:G2078 C2079:G2079 C2080:G2080 C2081:G2081 C2082:G2082 C2083:G2083 C2084:G2084 C2085:G2085 C2086:G2086 C2087:G2087 C2088:G2088 C2089:G2089 C2090:G2090 C2091:G2091 C2092:G2092 C2093:G2093 C2094:G2094 C2095:G2095 C2096:G2096 C2097:G2097 C2098:G2098 C2099:G2099 C2100:G2100 C2101:G2101 C2102:G2102 C2103:G2103 C2104:G2104 C2105:G2105 C2106:G2106 C2107:G2107 C2108:G2108 C2109:G2109 C2110:G2110 C2111:G2111 C2112:G2112 C2113:G2113 C2114:G2114 C2115:G2115 C2116:G2116 C2117:G2117 C2118:G2118 C2119:G2119 C2120:G2120 C2121:G2121 C2122:G2122 C2123:G2123 C2124:G2124 C2125:G2125 C2126:G2126 C2127:G2127 C2128:G2128 C2129:G2129 C2130:G2130 C2131:G2131 C2132:G2132 C2133:G2133 C2134:G2134 C2135:G2135 C2136:G2136 C2137:G2137 C2138:G2138 C2139:G2139 C2140:G2140 C2141:G2141 C2142:G2142 C2143:G2143 C2144:G2144 C2145:G2145 C2146:G2146 C2147:G2147 C2148:G2148 C2149:G2149 C2150:G2150 C2151:G2151 C2152:G2152 C2153:G2153 C2154:G2154 C2155:G2155 C2156:G2156 C2157:G2157 C2158:G2158 C2159:G2159 C2160:G2160 C2161:G2161 C2162:G2162 C2163:G2163 C2164:G2164 C2165:G2165 C2166:G2166 C2167:G2167 C2168:G2168 C2169:G2169 C2170:G2170 C2171:G2171 C2172:G2172 C2173:G2173 C2174:G2174 C2175:G2175 C2176:G2176 C2177:G2177 C2178:G2178 C2179:G2179 C2180:G2180 C2181:G2181 C2182:G2182 C2183:G2183 C2184:G2184 C2185:G2185 C2186:G2186 C2187:G2187 C2188:G2188 C2189:G2189 C2190:G2190 C2191:G2191 C2192:G2192 C2193:G2193 C2194:G2194 C2195:G2195 C2196:G2196 C2197:G2197 C2198:G2198 C2199:G2199 C2200:G2200 C2201:G2201 C2202:G2202 C2203:G2203 C2204:G2204 C2205:G2205 C2206:G2206 C2207:G2207 C2208:G2208 C2209:G2209 C2210:G2210 C2211:G2211 C2212:G2212 C2213:G2213 C2214:G2214 C2215:G2215 C2216:G2216 C2217:G2217 C2218:G2218 C2219:G2219 C2220:G2220 C2221:G2221 C2222:G2222 C2223:G2223 C2224:G2224 C2225:G2225 C2226:G2226 C2227:G2227 C2228:G2228 C2229:G2229 C2230:G2230 C2231:G2231 C2232:G2232 C2233:G2233 C2234:G2234 C2235:G2235 C2236:G2236 C2237:G2237 C2238:G2238 C2239:G2239 C2240:G2240 C2241:G2241 C2242:G2242 C2243:G2243 C2244:G2244 C2245:G2245 C2246:G2246 C2247:G2247 C2248:G2248 C2249:G2249 C2250:G2250 C2251:G2251 C2252:G2252 C2253:G2253 C2254:G2254 C2255:G2255 C2256:G2256 C2257:G2257 C2258:G2258 C2259:G2259 C2260:G2260 C2261:G2261 C2262:G2262 C2263:G2263 C2264:G2264 C2265:G2265 C2266:G2266 C2267:G2267 C2268:G2268 C2269:G2269 C2270:G2270 C2271:G2271 C2272:G2272 C2273:G2273 C2274:G2274 C2275:G2275 C2276:G2276 C2277:G2277 C2278:G2278 C2279:G2279 C2280:G2280 C2281:G2281 C2282:G2282 C2283:G2283 C2284:G2284 C2285:G2285 C2286:G2286 C2287:G2287 C2288:G2288 C2289:G2289 C2290:G2290 C2291:G2291 C2292:G2292 C2293:G2293 C2294:G2294 C2295:G2295 C2296:G2296 C2297:G2297 C2298:G2298 C2299:G2299 C2300:G2300 C2301:G2301 C2302:G2302 C2303:G2303 C2304:G2304 C2305:G2305 C2306:G2306 C2307:G2307 C2308:G2308 C2309:G2309 C2310:G2310 C2311:G2311 C2312:G2312 C2313:G2313 C2314:G2314 C2315:G2315 C2316:G2316 C2317:G2317 C2318:G2318 C2319:G2319 C2320:G2320 C2321:G2321 C2322:G2322 C2323:G2323 C2324:G2324 C2325:G2325 C2326:G2326 C2327:G2327 C2328:G2328 C2329:G2329 C2330:G2330 C2331:G2331 C2332:G2332 C2333:G2333 C2334:G2334 C2335:G2335 C2336:G2336 C2337:G2337 C2338:G2338 C2339:G2339 C2340:G2340 C2341:G2341 C2342:G2342 C2343:G2343 C2344:G2344 C2345:G2345 C2346:G2346 C2347:G2347 C2348:G2348 C2349:G2349 C2350:G2350 C2351:G2351 C2352:G2352 C2353:G2353 C2354:G2354 C2355:G2355 C2356:G2356 C2357:G2357 C2358:G2358 C2359:G2359 C2360:G2360 C2361:G2361 C2362:G2362 C2363:G2363 C2364:G2364 C2365:G2365 C2366:G2366 C2367:G2367 C2368:G2368 C2369:G2369 C2370:G2370 C2371:G2371 C2372:G2372 C2373:G2373 C2374:G2374 C2375:G2375 C2376:G2376 C2377:G2377 C2378:G2378 C2379:G2379 C2380:G2380 C2381:G2381 C2382:G2382 C2383:G2383 C2384:G2384 C2385:G2385 C2386:G2386 C2387:G2387 C2388:G2388 C2389:G2389 C2390:G2390 C2391:G2391 C2392:G2392 C2393:G2393 C2394:G2394 C2395:G2395 C2396:G2396 C2397:G2397 C2398:G2398 C2399:G2399 C2400:G2400 C2401:G2401 C2402:G2402 C2403:G2403 C2404:G2404 C2405:G2405 C2406:G2406 C2407:G2407 C2408:G2408 C2409:G2409 C2410:G2410 C2411:G2411 C2412:G2412 C2413:G2413 C2414:G2414 C2415:G2415 C2416:G2416 C2417:G2417 C2418:G2418 C2419:G2419 C2420:G2420 C2421:G2421 C2422:G2422 C2423:G2423 C2424:G2424 C2425:G2425 C2426:G2426 C2427:G2427 C2428:G2428 C2429:G2429 C2430:G2430 C2431:G2431 C2432:G2432 C2433:G2433 C2434:G2434 C2435:G2435 C2436:G2436 C2437:G2437 C2438:G2438 C2439:G2439 C2440:G2440 C2441:G2441 C2442:G2442 C2443:G2443 C2444:G2444 C2445:G2445 C2446:G2446 C2447:G2447 C2448:G2448 C2449:G2449 C2450:G2450 C2451:G2451 C2452:G2452 C2453:G2453 C2454:G2454 C2455:G2455 C2456:G2456 C2457:G2457 C2458:G2458 C2459:G2459 C2460:G2460 C2461:G2461 C2462:G2462 C2463:G2463 C2464:G2464 C2465:G2465 C2466:G2466 C2467:G2467 C2468:G2468 C2469:G2469 C2470:G2470 C2471:G2471 C2472:G2472 C2473:G2473 C2474:G2474 C2475:G2475 C2476:G2476 C2477:G2477 C2478:G2478 C2479:G2479 C2480:G2480 C2481:G2481 C2482:G2482 C2483:G2483 C2484:G2484 C2485:G2485 C2486:G2486 C2487:G2487 C2488:G2488 C2489:G2489 C2490:G2490 C2491:G2491 C2492:G2492 C2493:G2493 C2494:G2494 C2495:G2495 C2496:G2496 C2497:G2497 C2498:G2498 C2499:G2499 C2500:G2500 C2501:G2501 C2502:G2502 C2503:G2503 C2504:G2504 C2505:G2505 C2506:G2506 C2507:G2507 C2508:G2508 C2509:G2509 C2510:G2510 C2511:G2511 C2512:G2512 C2513:G2513 C2514:G2514 C2515:G2515 C2516:G2516 C2517:G2517 C2518:G2518 C2519:G2519 C2520:G2520 C2521:G2521 C2522:G2522 C2523:G2523 C2524:G2524 C2525:G2525 C2526:G2526 C2527:G2527 C2528:G2528 C2529:G2529 C2530:G2530 C2531:G2531 C2532:G2532 C2533:G2533 C2534:G2534 C2535:G2535 C2536:G2536 C2537:G2537 C2538:G2538 C2539:G2539 C2540:G2540 C2541:G2541 C2542:G2542 C2543:G2543 C2544:G2544 C2545:G2545 C2546:G2546 C2547:G2547 C2548:G2548 C2549:G2549 C2550:G2550 C2551:G2551 C2552:G2552 C2553:G2553 C2554:G2554 C2555:G2555 C2556:G2556 C2557:G2557 C2558:G2558 C2559:G2559 C2560:G2560 C2561:G2561 C2562:G2562 C2563:G2563 C2564:G2564 C2565:G2565 C2566:G2566 C2567:G2567 C2568:G2568 C2569:G2569 C2570:G2570 C2571:G2571 C2572:G2572 C2573:G2573 C2574:G2574 C2575:G2575 C2576:G2576 C2577:G2577 C2578:G2578 C2579:G2579 C2580:G2580 C2581:G2581 C2582:G2582 C2583:G2583 C2584:G2584 C2585:G2585 C2586:G2586 C2587:G2587 C2588:G2588 C2589:G2589 C2590:G2590 C2591:G2591 C2592:G2592 C2593:G2593 C2594:G2594 C2595:G2595 C2596:G2596 C2597:G2597 C2598:G2598 C2599:G2599 C2600:G2600 C2601:G2601 C2602:G2602 C2603:G2603 C2604:G2604 C2605:G2605 C2606:G2606 C2607:G2607 C2608:G2608 C2609:G2609 C2610:G2610 C2611:G2611 C2612:G2612 C2613:G2613 C2614:G2614 C2615:G2615 C2616:G2616 C2617:G2617 C2618:G2618 C2619:G2619 C2620:G2620 C2621:G2621 C2622:G2622 C2623:G2623 C2624:G2624 C2625:G2625 C2626:G2626 C2627:G2627 C2628:G2628 C2629:G2629 C2630:G2630 C2631:G2631 C2632:G2632 C2633:G2633 C2634:G2634 C2635:G2635 C2636:G2636 C2637:G2637 C2638:G2638 C2639:G2639 C2640:G2640 C2641:G2641 C2642:G2642 C2643:G2643 C2644:G2644 C2645:G2645 C2646:G2646 C2647:G2647 C2648:G2648 C2649:G2649 C2650:G2650 C2651:G2651 C2652:G2652 C2653:G2653 C2654:G2654 C2655:G2655 C2656:G2656 C2657:G2657 C2658:G2658 C2659:G2659 C2660:G2660 C2661:G2661 C2662:G2662 C2663:G2663 C2664:G2664 C2665:G2665 C2666:G2666 C2667:G2667 C2668:G2668 C2669:G2669 C2670:G2670 C2671:G2671 C2672:G2672 C2673:G2673 C2674:G2674 C2675:G2675 C2676:G2676 C2677:G2677 C2678:G2678 C2679:G2679 C2680:G2680 C2681:G2681 C2682:G2682 C2683:G2683 C2684:G2684 C2685:G2685 C2686:G2686 C2687:G2687 C2688:G2688 C2689:G2689 C2690:G2690 C2691:G2691 C2692:G2692 C2693:G2693 C2694:G2694 C2695:G2695 C2696:G2696 C2697:G2697 C2698:G2698 C2699:G2699 C2700:G2700 C2701:G2701 C2702:G2702 C2703:G2703 C2704:G2704 C2705:G2705 C2706:G2706 C2707:G2707 C2708:G2708 C2709:G2709 C2710:G2710 C2711:G2711 C2712:G2712 C2713:G2713 C2714:G2714 C2715:G2715 C2716:G2716 C2717:G2717 C2718:G2718 C2719:G2719 C2720:G2720 C2721:G2721 C2722:G2722 C2723:G2723 C2724:G2724 C2725:G2725 C2726:G2726 C2727:G2727 C2728:G2728 C2729:G2729 C2730:G2730 C2731:G2731 C2732:G2732 C2733:G2733 C2734:G2734 C2735:G2735 C2736:G2736 C2737:G2737 C2738:G2738 C2739:G2739 C2740:G2740 C2741:G2741 C2742:G2742 C2743:G2743 C2744:G2744 C2745:G2745 C2746:G2746 C2747:G2747 C2748:G2748 C2749:G2749 C2750:G2750 C2751:G2751 C2752:G2752 C2753:G2753 C2754:G2754 C2755:G2755 C2756:G2756 C2757:G2757 C2758:G2758 C2759:G2759 C2760:G2760 C2761:G2761 C2762:G2762 C2763:G2763 C2764:G2764 C2765:G2765 C2766:G2766 C2767:G2767 C2768:G2768 C2769:G2769 C2770:G2770 C2771:G2771 C2772:G2772 C2773:G2773 C2774:G2774 C2775:G2775 C2776:G2776 C2777:G2777 C2778:G2778 C2779:G2779 C2780:G2780 C2781:G2781 C2782:G2782 C2783:G2783 C2784:G2784 C2785:G2785 C2786:G2786 C2787:G2787 C2788:G2788 C2789:G2789 C2790:G2790 C2791:G2791 C2792:G2792 C2793:G2793 C2794:G2794 C2795:G2795 C2796:G2796 C2797:G2797 C2798:G2798 C2799:G2799 C2800:G2800 C2801:G2801 C2802:G2802 C2803:G2803 C2804:G2804 C2805:G2805 C2806:G2806 C2807:G2807 C2808:G2808 C2809:G2809 C2810:G2810 C2811:G2811 C2812:G2812 C2813:G2813 C2814:G2814 C2815:G2815 C2816:G2816 C2817:G2817 C2818:G2818 C2819:G2819 C2820:G2820 C2821:G2821 C2822:G2822 C2823:G2823 C2824:G2824 C2825:G2825 C2826:G2826 C2827:G2827 C2828:G2828 C2829:G2829 C2830:G2830 C2831:G2831 C2832:G2832 C2833:G2833 C2834:G2834 C2835:G2835 C2836:G2836 C2837:G2837 C2838:G2838 C2839:G2839 C2840:G2840 C2841:G2841 C2842:G2842 C2843:G2843 C2844:G2844 C2845:G2845 C2846:G2846 C2847:G2847 C2848:G2848 C2849:G2849 C2850:G2850 C2851:G2851 C2852:G2852 C2853:G2853 C2854:G2854 C2855:G2855 C2856:G2856 C2857:G2857 C2858:G2858 C2859:G2859 C2860:G2860 C2861:G2861 C2862:G2862 C2863:G2863 C2864:G2864 C2865:G2865 C2866:G2866 C2867:G2867 C2868:G2868 C2869:G2869 C2870:G2870 C2871:G2871 C2872:G2872 C2873:G2873 C2874:G2874 C2875:G2875 C2876:G2876 C2877:G2877 C2878:G2878 C2879:G2879 C2880:G2880 C2881:G2881 C2882:G2882 C2883:G2883 C2884:G2884 C2885:G2885 C2886:G2886 C2887:G2887 C2888:G2888 C2889:G2889 C2890:G2890 C2891:G2891 C2892:G2892 C2893:G2893 C2894:G2894 C2895:G2895 C2896:G2896 C2897:G2897 C2898:G2898 C2899:G2899 C2900:G2900 C2901:G2901 C2902:G2902 C2903:G2903 C2904:G2904 C2905:G2905 C2906:G2906 C2907:G2907 C2908:G2908 C2909:G2909 C2910:G2910 C2911:G2911 C2912:G2912 C2913:G2913 C2914:G2914 C2915:G2915 C2916:G2916 C2917:G2917 C2918:G2918 C2919:G2919 C2920:G2920 C2921:G2921 C2922:G2922 C2923:G2923 C2924:G2924 C2925:G2925 C2926:G2926 C2927:G2927 C2928:G2928 C2929:G2929 C2930:G2930 C2931:G2931 C2932:G2932 C2933:G2933 C2934:G2934 C2935:G2935 C2936:G2936 C2937:G2937 C2938:G2938 C2939:G2939 C2940:G2940 C2941:G2941 C2942:G2942 C2943:G2943 C2944:G2944 C2945:G2945 C2946:G2946 C2947:G2947 C2948:G2948 C2949:G2949 C2950:G2950 C2951:G2951 C2952:G2952 C2953:G2953 C2954:G2954 C2955:G2955 C2956:G2956 C2957:G2957 C2958:G2958 C2959:G2959 C2960:G2960 C2961:G2961 C2962:G2962 C2963:G2963 C2964:G2964 C2965:G2965 C2966:G2966 C2967:G2967 C2968:G2968 C2969:G2969 C2970:G2970 C2971:G2971 C2972:G2972 C2973:G2973 C2974:G2974 C2975:G2975 C2976:G2976 C2977:G2977 C2978:G2978 C2979:G2979 C2980:G2980 C2981:G2981 C2982:G2982 C2983:G2983 C2984:G2984 C2985:G2985 C2986:G2986 C2987:G2987 C2988:G2988 C2989:G2989 C2990:G2990 C2991:G2991 C2992:G2992 C2993:G2993 C2994:G2994 C2995:G2995 C2996:G2996 C2997:G2997 C2998:G2998 C2999:G2999 C3000:G3000 C3001:G3001 C3002:G3002 C3003:G3003 C3004:G3004 C3005:G3005 C3006:G3006 C3007:G3007 C3008:G3008 C3009:G3009 C3010:G3010 C3011:G3011 C3012:G3012 C3013:G3013 C3014:G3014 C3015:G3015 C3016:G3016 C3017:G3017 C3018:G3018 C3019:G3019 C3020:G3020 C3021:G3021 C3022:G3022 C3023:G3023 C3024:G3024 C3025:G3025 C3026:G3026 C3027:G3027 C3028:G3028 C3029:G3029 C3030:G3030 C3031:G3031 C3032:G3032 C3033:G3033 C3034:G3034 C3035:G3035 C3036:G3036 C3037:G3037 C3038:G3038 C3039:G3039 C3040:G3040 C3041:G3041 C3042:G3042 C3043:G3043 C3044:G3044 C3045:G3045 C3046:G3046 C3047:G3047 C3048:G3048 C3049:G3049 C3050:G3050 C3051:G3051 C3052:G3052 C3053:G3053 C3054:G3054 C3055:G3055 C3056:G3056 C3057:G3057 C3058:G3058 C3059:G3059 C3060:G3060 C3061:G3061 C3062:G3062 C3063:G3063 C3064:G3064 C3065:G3065 C3066:G3066 C3067:G3067 C3068:G3068 C3069:G3069 C3070:G3070 C3071:G3071 C3072:G3072 C3073:G3073 C3074:G3074 C3075:G3075 C3076:G3076 C3077:G3077 C3078:G3078 C3079:G3079 C3080:G3080 C3081:G3081 C3082:G3082 C3083:G3083 C3084:G3084 C3085:G3085 C3086:G3086 C3087:G3087 C3088:G3088 C3089:G3089 C3090:G3090 C3091:G3091 C3092:G3092 C3093:G3093 C3094:G3094 C3095:G3095 C3096:G3096 C3097:G3097 C3098:G3098 C3099:G3099 C3100:G3100 C3101:G3101 C3102:G3102 C3103:G3103 C3104:G3104 C3105:G3105 C3106:G3106 C3107:G3107 C3108:G3108 C3109:G3109 C3110:G3110 C3111:G3111 C3112:G3112 C3113:G3113 C3114:G3114 C3115:G3115 C3116:G3116 C3117:G3117 C3118:G3118 C3119:G3119 C3120:G3120 C3121:G3121 C3122:G3122 C3123:G3123 C3124:G3124 C3125:G3125 C3126:G3126 C3127:G3127 C3128:G3128 C3129:G3129 C3130:G3130 C3131:G3131 C3132:G3132 C3133:G3133 C3134:G3134 C3135:G3135 C3136:G3136 C3137:G3137 C3138:G3138 C3139:G3139 C3140:G3140 C3141:G3141 C3142:G3142 C3143:G3143 C3144:G3144 C3145:G3145 C3146:G3146 C3147:G3147 C3148:G3148 C3149:G3149 C3150:G3150 C3151:G3151 C3152:G3152 C3153:G3153 C3154:G3154 C3155:G3155 C3156:G3156 C3157:G3157 C3158:G3158 C3159:G3159 C3160:G3160 C3161:G3161 C3162:G3162 C3163:G3163 C3164:G3164 C3165:G3165 C3166:G3166 C3167:G3167 C3168:G3168 C3169:G3169 C3170:G3170 C3171:G3171 C3172:G3172 C3173:G3173 C3174:G3174 C3175:G3175 C3176:G3176 C3177:G3177 C3178:G3178 C3179:G3179 C3180:G3180 C3181:G3181 C3182:G3182 C3183:G3183 C3184:G3184 C3185:G3185 C3186:G3186 C3187:G3187 C3188:G3188 C3189:G3189 C3190:G3190 C3191:G3191 C3192:G3192 C3193:G3193 C3194:G3194 C3195:G3195 C3196:G3196 C3197:G3197 C3198:G3198 C3199:G3199 C3200:G3200 C3201:G3201 C3202:G3202 C3203:G3203 C3204:G3204 C3205:G3205 C3206:G3206 C3207:G3207 C3208:G3208 C3209:G3209 C3210:G3210 C3211:G3211 C3212:G3212 C3213:G3213 C3214:G3214 C3215:G3215 C3216:G3216 C3217:G3217 C3218:G3218 C3219:G3219 C3220:G3220 C3221:G3221 C3222:G3222 C3223:G3223 C3224:G3224 C3225:G3225 C3226:G3226 C3227:G3227 C3228:G3228 C3229:G3229 C3230:G3230 C3231:G3231 C3232:G3232 C3233:G3233 C3234:G3234 C3235:G3235 C3236:G3236 C3237:G3237 C3238:G3238 C3239:G3239 C3240:G3240 C3241:G3241 C3242:G3242 C3243:G3243 C3244:G3244 C3245:G3245 C3246:G3246 C3247:G3247 C3248:G3248 C3249:G3249 C3250:G3250 C3251:G3251 C3252:G3252 C3253:G3253 C3254:G3254 C3255:G3255 C3256:G3256 C3257:G3257 C3258:G3258 C3259:G3259 C3260:G3260 C3261:G3261 C3262:G3262 C3263:G3263 C3264:G3264 C3265:G3265 C3266:G3266 C3267:G3267 C3268:G3268 C3269:G3269 C3270:G3270 C3271:G3271 C3272:G3272 C3273:G3273 C3274:G3274 C3275:G3275 C3276:G3276 C3277:G3277 C3278:G3278 C3279:G3279 C3280:G3280 C3281:G3281 C3282:G3282 C3283:G3283 C3284:G3284 C3285:G3285 C3286:G3286 C3287:G3287 C3288:G3288 C3289:G3289 C3290:G3290 C3291:G3291 C3292:G3292 C3293:G3293 C3294:G3294 C3295:G3295 C3296:G3296 C3297:G3297 C3298:G3298 C3299:G3299 C3300:G3300 C3301:G3301 C3302:G3302 C3303:G3303 C3304:G3304 C3305:G3305 C3306:G3306 C3307:G3307 C3308:G3308 C3309:G3309 C3310:G3310 C3311:G3311 C3312:G3312 C3313:G3313 C3314:G3314 C3315:G3315 C3316:G3316 C3317:G3317 C3318:G3318 C3319:G3319 C3320:G3320 C3321:G3321 C3322:G3322 C3323:G3323 C3324:G3324 C3325:G3325 C3326:G3326 C3327:G3327 C3328:G3328 C3329:G3329 C3330:G3330 C3331:G3331 C3332:G3332 C3333:G3333 C3334:G3334 C3335:G3335 C3336:G3336 C3337:G3337 C3338:G3338 C3339:G3339 C3340:G3340 C3341:G3341 C3342:G3342 C3343:G3343 C3344:G3344 C3345:G3345 C3346:G3346 C3347:G3347 C3348:G3348 C3349:G3349 C3350:G3350 C3351:G3351 C3352:G3352 C3353:G3353 C3354:G3354 C3355:G3355 C3356:G3356 C3357:G3357 C3358:G3358 C3359:G3359 C3360:G3360 C3361:G3361 C3362:G3362 C3363:G3363 C3364:G3364 C3365:G3365 C3366:G3366 C3367:G3367 C3368:G3368 C3369:G3369 C3370:G3370 C3371:G3371 C3372:G3372 C3373:G3373 C3374:G3374 C3375:G3375 C3376:G3376 C3377:G3377 C3378:G3378 C3379:G3379 C3380:G3380 C3381:G3381 C3382:G3382 C3383:G3383 C3384:G3384 C3385:G3385 C3386:G3386 C3387:G3387 C3388:G3388 C3389:G3389 C3390:G3390 C3391:G3391 C3392:G3392 C3393:G3393 C3394:G3394 C3395:G3395 C3396:G3396 C3397:G3397 C3398:G3398 C3399:G3399 C3400:G3400 C3401:G3401 C3402:G3402 C3403:G3403 C3404:G3404 C3405:G3405 C3406:G3406 C3407:G3407 C3408:G3408 C3409:G3409 C3410:G3410 C3411:G3411 C3412:G3412 C3413:G3413 C3414:G3414 C3415:G3415 C3416:G3416 C3417:G3417 C3418:G3418 C3419:G3419 C3420:G3420 C3421:G3421 C3422:G3422 C3423:G3423 C3424:G3424 C3425:G3425 C3426:G3426 C3427:G3427 C3428:G3428 C3429:G3429 C3430:G3430 C3431:G3431 C3432:G3432 C3433:G3433 C3434:G3434 C3435:G3435 C3436:G3436 C3437:G3437 C3438:G3438 C3439:G3439 C3440:G3440 C3441:G3441 C3442:G3442 C3443:G3443 C3444:G3444 C3445:G3445 C3446:G3446 C3447:G3447 C3448:G3448 C3449:G3449 C3450:G3450 C3451:G3451 C3452:G3452 C3453:G3453 C3454:G3454 C3455:G3455 C3456:G3456 C3457:G3457 C3458:G3458 C3459:G3459 C3460:G3460 C3461:G3461 C3462:G3462 C3463:G3463 C3464:G3464 C3465:G3465 C3466:G3466 C3467:G3467 C3468:G3468 C3469:G3469 C3470:G3470 C3471:G3471 C3472:G3472 C3473:G3473 C3474:G3474 C3475:G3475 C3476:G3476 C3477:G3477 C3478:G3478 C3479:G3479 C3480:G3480 C3481:G3481 C3482:G3482 C3483:G3483 C3484:G3484 C3485:G3485 C3486:G3486 C3487:G3487 C3488:G3488 C3489:G3489 C3490:G3490 C3491:G3491 C3492:G3492 C3493:G3493 C3494:G3494 C3495:G3495 C3496:G3496 C3497:G3497 C3498:G3498 C3499:G3499 C3500:G3500 C3501:G3501 C3502:G3502 C3503:G3503 C3504:G3504 C3505:G3505 C3506:G3506 C3507:G3507 C3508:G3508 C3509:G3509 C3510:G3510 C3511:G3511 C3512:G3512 C3513:G3513 C3514:G3514 C3515:G3515 C3516:G3516 C3517:G3517 C3518:G3518 C3519:G3519 C3520:G3520 C3521:G3521 C3522:G3522 C3523:G3523 C3524:G3524 C3525:G3525 C3526:G3526 C3527:G3527 C3528:G3528 C3529:G3529 C3530:G3530 C3531:G3531 C3532:G3532 C3533:G3533 C3534:G3534 C3535:G3535 C3536:G3536 C3537:G3537 C3538:G3538 C3539:G3539 C3540:G3540 C3541:G3541 C3542:G3542 C3543:G3543 C3544:G3544 C3545:G3545 C3546:G3546 C3547:G3547 C3548:G3548 C3549:G3549 C3550:G3550 C3551:G3551 C3552:G3552 C3553:G3553 C3554:G3554 C3555:G3555 C3556:G3556 C3557:G3557 C3558:G3558 C3559:G3559 C3560:G3560 C3561:G3561 C3562:G3562 C3563:G3563 C3564:G3564 C3565:G3565 C3566:G3566 C3567:G3567 C3568:G3568 C3569:G3569 C3570:G3570 C3571:G3571 C3572:G3572 C3573:G3573 C3574:G3574 C3575:G3575 C3576:G3576 C3577:G3577 C3578:G3578 C3579:G3579 C3580:G3580 C3581:G3581 C3582:G3582 C3583:G3583 C3584:G3584 C3585:G3585 C3586:G3586 C3587:G3587 C3588:G3588 C3589:G3589 C3590:G3590 C3591:G3591 C3592:G3592 C3593:G3593 C3594:G3594 C3595:G3595 C3596:G3596 C3597:G3597 C3598:G3598 C3599:G3599 C3600:G3600 C3601:G3601 C3602:G3602 C3603:G3603 C3604:G3604 C3605:G3605 C3606:G3606 C3607:G3607 C3608:G3608 C3609:G3609 C3610:G3610 C3611:G3611 C3612:G3612 C3613:G3613 C3614:G3614 C3615:G3615 C3616:G3616 C3617:G3617 C3618:G3618 C3619:G3619 C3620:G3620 C3621:G3621 C3622:G3622 C3623:G3623 C3624:G3624 C3625:G3625 C3626:G3626 C3627:G3627 C3628:G3628 C3629:G3629 C3630:G3630 C3631:G3631 C3632:G3632 C3633:G3633 C3634:G3634 C3635:G3635 C3636:G3636 C3637:G3637 C3638:G3638 C3639:G3639 C3640:G3640 C3641:G3641 C3642:G3642 C3643:G3643 C3644:G3644 C3645:G3645 C3646:G3646 C3647:G3647 C3648:G3648 C3649:G3649 C3650:G3650 C3651:G3651 C3652:G3652 C3653:G3653 C3654:G3654 C3655:G3655 C3656:G3656 C3657:G3657 C3658:G3658 C3659:G3659 C3660:G3660 C3661:G3661 C3662:G3662 C3663:G3663 C3664:G3664 C3665:G3665 C3666:G3666 C3667:G3667 C3668:G3668 C3669:G3669 C3670:G3670 C3671:G3671 C3672:G3672 C3673:G3673 C3674:G3674 C3675:G3675 C3676:G3676 C3677:G3677 C3678:G3678 C3679:G3679 C3680:G3680 C3681:G3681 C3682:G3682 C3683:G3683 C3684:G3684 C3685:G3685 C3686:G3686 C3687:G3687 C3688:G3688 C3689:G3689 C3690:G3690 C3691:G3691 C3692:G3692 C3693:G3693 C3694:G3694 C3695:G3695 C3696:G3696 C3697:G3697 C3698:G3698 C3699:G3699 C3700:G3700 C3701:G3701 C3702:G3702 C3703:G3703 C3704:G3704 C3705:G3705 C3706:G3706 C3707:G3707 C3708:G3708 C3709:G3709 C3710:G3710 C3711:G3711 C3712:G3712 C3713:G3713 C3714:G3714 C3715:G3715 C3716:G3716 C3717:G3717 C3718:G3718 C3719:G3719 C3720:G3720 C3721:G3721 C3722:G3722 C3723:G3723 C3724:G3724 C3725:G3725 C3726:G3726 C3727:G3727 C3728:G3728 C3729:G3729 C3730:G3730 C3731:G3731 C3732:G3732 C3733:G3733 C3734:G3734 C3735:G3735 C3736:G3736 C3737:G3737 C3738:G3738 C3739:G3739 C3740:G3740 C3741:G3741 C3742:G3742 C3743:G3743 C3744:G3744 C3745:G3745 C3746:G3746 C3747:G3747 C3748:G3748 C3749:G3749 C3750:G3750 C3751:G3751 C3752:G3752 C3753:G3753 C3754:G3754 C3755:G3755 C3756:G3756 C3757:G3757 C3758:G3758 C3759:G3759 C3760:G3760 C3761:G3761 C3762:G3762 C3763:G3763 C3764:G3764 C3765:G3765 C3766:G3766 C3767:G3767 C3768:G3768 C3769:G3769 C3770:G3770 C3771:G3771 C3772:G3772 C3773:G3773 C3774:G3774 C3775:G3775 C3776:G3776 C3777:G3777 C3778:G3778 C3779:G3779 C3780:G3780 C3781:G3781 C3782:G3782 C3783:G3783 C3784:G3784 C3785:G3785 C3786:G3786 C3787:G3787 C3788:G3788 C3789:G3789 C3790:G3790 C3791:G3791 C3792:G3792 C3793:G3793 C3794:G3794 C3795:G3795 C3796:G3796 C3797:G3797 C3798:G3798 C3799:G3799 C3800:G3800 C3801:G3801 C3802:G3802 C3803:G3803 C3804:G3804 C3805:G3805 C3806:G3806 C3807:G3807 C3808:G3808 C3809:G3809 C3810:G3810 C3811:G3811 C3812:G3812 C3813:G3813 C3814:G3814 C3815:G3815 C3816:G3816 C3817:G3817 C3818:G3818 C3819:G3819 C3820:G3820 C3821:G3821 C3822:G3822 C3823:G3823 C3824:G3824 C3825:G3825 C3826:G3826 C3827:G3827 C3828:G3828 C3829:G3829 C3830:G3830 C3831:G3831 C3832:G3832 C3833:G3833 C3834:G3834 C3835:G3835 C3836:G3836 C3837:G3837 C3838:G3838 C3839:G3839 C3840:G3840 C3841:G3841 C3842:G3842 C3843:G3843 C3844:G3844 C3845:G3845 C3846:G3846 C3847:G3847 C3848:G3848 C3849:G3849 C3850:G3850 C3851:G3851 C3852:G3852 C3853:G3853 C3854:G3854 C3855:G3855 C3856:G3856 C3857:G3857 C3858:G3858 C3859:G3859 C3860:G3860 C3861:G3861 C3862:G3862 C3863:G3863 C3864:G3864 C3865:G3865 C3866:G3866 C3867:G3867 C3868:G3868 C3869:G3869 C3870:G3870 C3871:G3871 C3872:G3872 C3873:G3873 C3874:G3874 C3875:G3875 C3876:G3876 C3877:G3877 C3878:G3878 C3879:G3879 C3880:G3880 C3881:G3881 C3882:G3882 C3883:G3883 C3884:G3884 C3885:G3885 C3886:G3886 C3887:G3887 C3888:G3888 C3889:G3889 C3890:G3890 C3891:G3891 C3892:G3892 C3893:G3893 C3894:G3894 C3895:G3895 C3896:G3896 C3897:G3897 C3898:G3898 C3899:G3899 C3900:G3900 C3901:G3901 C3902:G3902 C3903:G3903 C3904:G3904 C3905:G3905 C3906:G3906 C3907:G3907 C3908:G3908 C3909:G3909 C3910:G3910 C3911:G3911 C3912:G3912 C3913:G3913 C3914:G3914 C3915:G3915 C3916:G3916 C3917:G3917 C3918:G3918 C3919:G3919 C3920:G3920 C3921:G3921 C3922:G3922 C3923:G3923 C3924:G3924 C3925:G3925 C3926:G3926 C3927:G3927 C3928:G3928 C3929:G3929 C3930:G3930 C3931:G3931 C3932:G3932 C3933:G3933 C3934:G3934 C3935:G3935 C3936:G3936 C3937:G3937 C3938:G3938 C3939:G3939 C3940:G3940 C3941:G3941 C3942:G3942 C3943:G3943 C3944:G3944 C3945:G3945 C3946:G3946 C3947:G3947 C3948:G3948 C3949:G3949 C3950:G3950 C3951:G3951 C3952:G3952 C3953:G3953 C3954:G3954 C3955:G3955 C3956:G3956 C3957:G3957 C3958:G3958 C3959:G3959 C3960:G3960 C3961:G3961 C3962:G3962 C3963:G3963 C3964:G3964 C3965:G3965 C3966:G3966 C3967:G3967 C3968:G3968 C3969:G3969 C3970:G3970 C3971:G3971 C3972:G3972 C3973:G3973 C3974:G3974 C3975:G3975 C3976:G3976 C3977:G3977 C3978:G3978 C3979:G3979 C3980:G3980 C3981:G3981 C3982:G3982 C3983:G3983 C3984:G3984 C3985:G3985 C3986:G3986 C3987:G3987 C3988:G3988 C3989:G3989 C3990:G3990 C3991:G3991 C3992:G3992 C3993:G3993 C3994:G3994 C3995:G3995 C3996:G3996 C3997:G3997 C3998:G3998 C3999:G3999 C4000:G4000 C4001:G4001 C4002:G4002 C4003:G4003 C4004:G4004 C4005:G4005 C4006:G4006 C4007:G4007 C4008:G4008 C4009:G4009 C4010:G4010 C4011:G4011 C4012:G4012 C4013:G4013 C4014:G4014 C4015:G4015 C4016:G4016 C4017:G4017 C4018:G4018 C4019:G4019 C4020:G4020 C4021:G4021 C4022:G4022 C4023:G4023 C4024:G4024 C4025:G4025 C4026:G4026 C4027:G4027 C4028:G4028 C4029:G4029 C4030:G4030 C4031:G4031 C4032:G4032 C4033:G4033 C4034:G4034 C4035:G4035 C4036:G4036 C4037:G4037 C4038:G4038 C4039:G4039 C4040:G4040 C4041:G4041 C4042:G4042 C4043:G4043 C4044:G4044 C4045:G4045 C4046:G4046 C4047:G4047 C4048:G4048 C4049:G4049 C4050:G4050 C4051:G4051 C4052:G4052 C4053:G4053 C4054:G4054 C4055:G4055 C4056:G4056 C4057:G4057 C4058:G4058 C4059:G4059 C4060:G4060 C4061:G4061 C4062:G4062 C4063:G4063 C4064:G4064 C4065:G4065 C4066:G4066 C4067:G4067 C4068:G4068 C4069:G4069 C4070:G4070 C4071:G4071 C4072:G4072 C4073:G4073 C4074:G4074 C4075:G4075 C4076:G4076 C4077:G4077 C4078:G4078 C4079:G4079 C4080:G4080 C4081:G4081 C4082:G4082 C4083:G4083 C4084:G4084 C4085:G4085 C4086:G4086 C4087:G4087 C4088:G4088 C4089:G4089 C4090:G4090 C4091:G4091 C4092:G4092 C4093:G4093 C4094:G4094 C4095:G4095 C4096:G4096 C4097:G4097 C4098:G4098 C4099:G4099 C4100:G4100 C4101:G4101 C4102:G4102 C4103:G4103 C4104:G4104 C4105:G4105 C4106:G4106 C4107:G4107 C4108:G4108 C4109:G4109 C4110:G4110 C4111:G4111 C4112:G4112 C4113:G4113 C4114:G4114 C4115:G4115 C4116:G4116 C4117:G4117 C4118:G4118 C4119:G4119 C4120:G4120 C4121:G4121 C4122:G4122 C4123:G4123 C4124:G4124 C4125:G4125 C4126:G4126 C4127:G4127 C4128:G4128 C4129:G4129 C4130:G4130 C4131:G4131 C4132:G4132 C4133:G4133 C4134:G4134 C4135:G4135 C4136:G4136 C4137:G4137 C4138:G4138 C4139:G4139 C4140:G4140 C4141:G4141 C4142:G4142 C4143:G4143 C4144:G4144 C4145:G4145 C4146:G4146 C4147:G4147 C4148:G4148 C4149:G4149 C4150:G4150 C4151:G4151 C4152:G4152 C4153:G4153 C4154:G4154 C4155:G4155 C4156:G4156 C4157:G4157 C4158:G4158 C4159:G4159 C4160:G4160 C4161:G4161 C4162:G4162 C4163:G4163 C4164:G4164 C4165:G4165 C4166:G4166 C4167:G4167 C4168:G4168 C4169:G4169 C4170:G4170 C4171:G4171 C4172:G4172 C4173:G4173 C4174:G4174 C4175:G4175 C4176:G4176 C4177:G4177 C4178:G4178 C4179:G4179 C4180:G4180 C4181:G4181 C4182:G4182 C4183:G4183 C4184:G4184 C4185:G4185 C4186:G4186 C4187:G4187 C4188:G4188 C4189:G4189 C4190:G4190 C4191:G4191 C4192:G4192 C4193:G4193 C4194:G4194 C4195:G4195 C4196:G4196 C4197:G4197 C4198:G4198 C4199:G4199 C4200:G4200 C4201:G4201 C4202:G4202 C4203:G4203 C4204:G4204 C4205:G4205 C4206:G4206 C4207:G4207 C4208:G4208 C4209:G4209 C4210:G4210 C4211:G4211 C4212:G4212 C4213:G4213 C4214:G4214 C4215:G4215 C4216:G4216 C4217:G4217 C4218:G4218 C4219:G4219 C4220:G4220 C4221:G4221 C4222:G4222 C4223:G4223 C4224:G4224 C4225:G4225 C4226:G4226 C4227:G4227 C4228:G4228 C4229:G4229 C4230:G4230 C4231:G4231 C4232:G4232 C4233:G4233 C4234:G4234 C4235:G4235 C4236:G4236 C4237:G4237 C4238:G4238 C4239:G4239 C4240:G4240 C4241:G4241 C4242:G4242 C4243:G4243 C4244:G4244 C4245:G4245 C4246:G4246 C4247:G4247 C4248:G4248 C4249:G4249 C4250:G4250 C4251:G4251 C4252:G4252 C4253:G4253 C4254:G4254 C4255:G4255 C4256:G4256 C4257:G4257 C4258:G4258 C4259:G4259 C4260:G4260 C4261:G4261 C4262:G4262 C4263:G4263 C4264:G4264 C4265:G4265 C4266:G4266 C4267:G4267 C4268:G4268 C4269:G4269 C4270:G4270 C4271:G4271 C4272:G4272 C4273:G4273 C4274:G4274 C4275:G4275 C4276:G4276 C4277:G4277 C4278:G4278 C4279:G4279 C4280:G4280 C4281:G4281 C4282:G4282 C4283:G4283 C4284:G4284 C4285:G4285 C4286:G4286 C4287:G4287 C4288:G4288 C4289:G4289 C4290:G4290 C4291:G4291 C4292:G4292 C4293:G4293 C4294:G4294 C4295:G4295 C4296:G4296 C4297:G4297 C4298:G4298 C4299:G4299 C4300:G4300 C4301:G4301 C4302:G4302 C4303:G4303 C4304:G4304 C4305:G4305 C4306:G4306 C4307:G4307 C4308:G4308 C4309:G4309 C4310:G4310 C4311:G4311 C4312:G4312 C4313:G4313 C4314:G4314 C4315:G4315 C4316:G4316 C4317:G4317 C4318:G4318 C4319:G4319 C4320:G4320 C4321:G4321 C4322:G4322 C4323:G4323 C4324:G4324 C4325:G4325 C4326:G4326 C4327:G4327 C4328:G4328 C4329:G4329 C4330:G4330 C4331:G4331 C4332:G4332 C4333:G4333 C4334:G4334 C4335:G4335 C4336:G4336 C4337:G4337 C4338:G4338 C4339:G4339 C4340:G4340 C4341:G4341 C4342:G4342 C4343:G4343 C4344:G4344 C4345:G4345 C4346:G4346 C4347:G4347 C4348:G4348 C4349:G4349 C4350:G4350 C4351:G4351 C4352:G4352 C4353:G4353 C4354:G4354 C4355:G4355 C4356:G4356 C4357:G4357 C4358:G4358 C4359:G4359 C4360:G4360 C4361:G4361 C4362:G4362 C4363:G4363 C4364:G4364 C4365:G4365 C4366:G4366 C4367:G4367 C4368:G4368 C4369:G4369 C4370:G4370 C4371:G4371 C4372:G4372 C4373:G4373 C4374:G4374 C4375:G4375 C4376:G4376 C4377:G4377 C4378:G4378 C4379:G4379 C4380:G4380 C4381:G4381 C4382:G4382 C4383:G4383 C4384:G4384 C4385:G4385 C4386:G4386 C4387:G4387 C4388:G4388 C4389:G4389 C4390:G4390 C4391:G4391 C4392:G4392 C4393:G4393 C4394:G4394 C4395:G4395 C4396:G4396 C4397:G4397 C4398:G4398 C4399:G4399 C4400:G4400 C4401:G4401 C4402:G4402 C4403:G4403 C4404:G4404 C4405:G4405 C4406:G4406 C4407:G4407 C4408:G4408 C4409:G4409 C4410:G4410 C4411:G4411 C4412:G4412 C4413:G4413 C4414:G4414 C4415:G4415 C4416:G4416 C4417:G4417 C4418:G4418 C4419:G4419 C4420:G4420 C4421:G4421 C4422:G4422 C4423:G4423 C4424:G4424 C4425:G4425 C4426:G4426 C4427:G4427 C4428:G4428 C4429:G4429 C4430:G4430 C4431:G4431 C4432:G4432 C4433:G4433 C4434:G4434 C4435:G4435 C4436:G4436 C4437:G4437 C4438:G4438 C4439:G4439 C4440:G4440 C4441:G4441 C4442:G4442 C4443:G4443 C4444:G4444 C4445:G4445 C4446:G4446 C4447:G4447 C4448:G4448 C4449:G4449 C4450:G4450 C4451:G4451 C4452:G4452 C4453:G4453 C4454:G4454 C4455:G4455 C4456:G4456 C4457:G4457 C4458:G4458 C4459:G4459 C4460:G4460 C4461:G4461 C4462:G4462 C4463:G4463 C4464:G4464 C4465:G4465 C4466:G4466 C4467:G4467 C4468:G4468 C4469:G4469 C4470:G4470 C4471:G4471 C4472:G4472 C4473:G4473 C4474:G4474 C4475:G4475 C4476:G4476 C4477:G4477 C4478:G4478 C4479:G4479 C4480:G4480 C4481:G4481 C4482:G4482 C4483:G4483 C4484:G4484 C4485:G4485 C4486:G4486 C4487:G4487 C4488:G4488 C4489:G4489 C4490:G4490 C4491:G4491 C4492:G4492 C4493:G4493 C4494:G4494 C4495:G4495 C4496:G4496 C4497:G4497 C4498:G4498 C4499:G4499 C4500:G4500 C4501:G4501 C4502:G4502 C4503:G4503 C4504:G4504 C4505:G4505 C4506:G4506 C4507:G4507 C4508:G4508 C4509:G4509 C4510:G4510 C4511:G4511 C4512:G4512 C4513:G4513 C4514:G4514 C4515:G4515 C4516:G4516 C4517:G4517 C4518:G4518 C4519:G4519 C4520:G4520 C4521:G4521 C4522:G4522 C4523:G4523 C4524:G4524 C4525:G4525 C4526:G4526 C4527:G4527 C4528:G4528 C4529:G4529 C4530:G4530 C4531:G4531 C4532:G4532 C4533:G4533 C4534:G4534 C4535:G4535 C4536:G4536 C4537:G4537 C4538:G4538 C4539:G4539 C4540:G4540 C4541:G4541 C4542:G4542 C4543:G4543 C4544:G4544 C4545:G4545 C4546:G4546 C4547:G4547 C4548:G4548 C4549:G4549 C4550:G4550 C4551:G4551 C4552:G4552 C4553:G4553 C4554:G4554 C4555:G4555 C4556:G4556 C4557:G4557 C4558:G4558 C4559:G4559 C4560:G4560 C4561:G4561 C4562:G4562 C4563:G4563 C4564:G4564 C4565:G4565 C4566:G4566 C4567:G4567 C4568:G4568 C4569:G4569 C4570:G4570 C4571:G4571 C4572:G4572 C4573:G4573 C4574:G4574 C4575:G4575 C4576:G4576 C4577:G4577 C4578:G4578 C4579:G4579 C4580:G4580 C4581:G4581 C4582:G4582 C4583:G4583 C4584:G4584 C4585:G4585 C4586:G4586 C4587:G4587 C4588:G4588 C4589:G4589 C4590:G4590 C4591:G4591 C4592:G4592 C4593:G4593 C4594:G4594 C4595:G4595 C4596:G4596 C4597:G4597 C4598:G4598 C4599:G4599 C4600:G4600 C4601:G4601 C4602:G4602 C4603:G4603 C4604:G4604 C4605:G4605 C4606:G4606 C4607:G4607 C4608:G4608 C4609:G4609 C4610:G4610 C4611:G4611 C4612:G4612 C4613:G4613 C4614:G4614 C4615:G4615 C4616:G4616 C4617:G4617 C4618:G4618 C4619:G4619 C4620:G4620 C4621:G4621 C4622:G4622 C4623:G4623 C4624:G4624 C4625:G4625 C4626:G4626 C4627:G4627 C4628:G4628 C4629:G4629 C4630:G4630 C4631:G4631 C4632:G4632 C4633:G4633 C4634:G4634 C4635:G4635 C4636:G4636 C4637:G4637 C4638:G4638 C4639:G4639 C4640:G4640 C4641:G4641 C4642:G4642 C4643:G4643 C4644:G4644 C4645:G4645 C4646:G4646 C4647:G4647 C4648:G4648 C4649:G4649 C4650:G4650 C4651:G4651 C4652:G4652 C4653:G4653 C4654:G4654 C4655:G4655 C4656:G4656 D4657:G4657 D4658:G4658" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>